--- a/data/raw/Data_all.xlsx
+++ b/data/raw/Data_all.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A3460-A3D2-413E-8AF6-21EE4D99D866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD86E3D2-E296-49EC-9390-476DAA61330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_all" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_all!$A$1:$AA$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fishes!$A$1:$AB$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Macroinvertebrates!$A$1:$AB$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fishes!$A$1:$AC$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Macroinvertebrates!$A$1:$AC$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3733" uniqueCount="200">
   <si>
     <t>Florestal</t>
   </si>
@@ -622,6 +622,18 @@
   <si>
     <t>Luzon_rain_forests</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>mean_land_use</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Mean_land_use</t>
+  </si>
 </sst>
 </file>
 
@@ -1091,47 +1103,47 @@
   <dimension ref="A1:AQ139"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A134" activeCellId="2" sqref="A129:XFD129 A131:XFD132 A134:XFD136"/>
+      <selection pane="bottomRight" activeCell="AC70" sqref="AC70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1225,9 @@
       <c r="AA1" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="5"/>
+      <c r="AB1" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="6"/>
@@ -1223,7 +1237,7 @@
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>459</v>
       </c>
@@ -1305,7 +1319,10 @@
       <c r="AA2">
         <v>1259.3199463000001</v>
       </c>
-      <c r="AB2" s="4"/>
+      <c r="AB2" s="4" t="e">
+        <f>(P2-O2)/2</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
@@ -1315,7 +1332,7 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>459</v>
       </c>
@@ -1397,7 +1414,10 @@
       <c r="AA3">
         <v>1259.3199463000001</v>
       </c>
-      <c r="AB3" s="4"/>
+      <c r="AB3" s="4" t="e">
+        <f t="shared" ref="AB3:AB66" si="0">(P3-O3)/2</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="6"/>
@@ -1407,7 +1427,7 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>459</v>
       </c>
@@ -1489,7 +1509,10 @@
       <c r="AA4">
         <v>1259.3199463000001</v>
       </c>
-      <c r="AB4" s="4"/>
+      <c r="AB4" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="6"/>
@@ -1499,7 +1522,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>459</v>
       </c>
@@ -1581,7 +1604,10 @@
       <c r="AA5">
         <v>1259.3199463000001</v>
       </c>
-      <c r="AB5" s="4"/>
+      <c r="AB5" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="6"/>
@@ -1591,7 +1617,7 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>459</v>
       </c>
@@ -1673,7 +1699,10 @@
       <c r="AA6">
         <v>1259.3199463000001</v>
       </c>
-      <c r="AB6" s="4"/>
+      <c r="AB6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="6"/>
@@ -1683,7 +1712,7 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>459</v>
       </c>
@@ -1765,7 +1794,10 @@
       <c r="AA7">
         <v>1259.3199463000001</v>
       </c>
-      <c r="AB7" s="4"/>
+      <c r="AB7" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="6"/>
@@ -1775,7 +1807,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2070</v>
       </c>
@@ -1857,7 +1889,10 @@
       <c r="AA8">
         <v>820.2009888</v>
       </c>
-      <c r="AB8" s="4"/>
+      <c r="AB8" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="6"/>
@@ -1867,7 +1902,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2070</v>
       </c>
@@ -1949,7 +1984,10 @@
       <c r="AA9">
         <v>820.2009888</v>
       </c>
-      <c r="AB9" s="4"/>
+      <c r="AB9" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="6"/>
@@ -1959,7 +1997,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2070</v>
       </c>
@@ -2041,7 +2079,10 @@
       <c r="AA10">
         <v>820.2009888</v>
       </c>
-      <c r="AB10" s="4"/>
+      <c r="AB10" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="6"/>
@@ -2051,7 +2092,7 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -2133,7 +2174,10 @@
       <c r="AA11">
         <v>889.60400389999995</v>
       </c>
-      <c r="AB11" s="4"/>
+      <c r="AB11" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="6"/>
@@ -2143,7 +2187,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -2225,7 +2269,10 @@
       <c r="AA12">
         <v>889.60400389999995</v>
       </c>
-      <c r="AB12" s="4"/>
+      <c r="AB12" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="6"/>
@@ -2235,7 +2282,7 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -2317,7 +2364,10 @@
       <c r="AA13">
         <v>1099.4300536999999</v>
       </c>
-      <c r="AB13" s="4"/>
+      <c r="AB13" s="4">
+        <f t="shared" si="0"/>
+        <v>16.95</v>
+      </c>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="6"/>
@@ -2327,7 +2377,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -2409,7 +2459,10 @@
       <c r="AA14">
         <v>868.71301270000004</v>
       </c>
-      <c r="AB14" s="4"/>
+      <c r="AB14" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="6"/>
@@ -2419,7 +2472,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -2501,7 +2554,10 @@
       <c r="AA15">
         <v>1429.1300048999999</v>
       </c>
-      <c r="AB15" s="4"/>
+      <c r="AB15" s="4">
+        <f t="shared" si="0"/>
+        <v>15.95</v>
+      </c>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="6"/>
@@ -2511,7 +2567,7 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -2593,7 +2649,10 @@
       <c r="AA16">
         <v>1429.1300048999999</v>
       </c>
-      <c r="AB16" s="4"/>
+      <c r="AB16" s="4">
+        <f t="shared" si="0"/>
+        <v>15.95</v>
+      </c>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="6"/>
@@ -2603,7 +2662,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -2685,7 +2744,10 @@
       <c r="AA17">
         <v>1429.1300048999999</v>
       </c>
-      <c r="AB17" s="4"/>
+      <c r="AB17" s="4">
+        <f t="shared" si="0"/>
+        <v>27.900000000000002</v>
+      </c>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="6"/>
@@ -2695,7 +2757,7 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -2777,7 +2839,10 @@
       <c r="AA18">
         <v>1429.1300048999999</v>
       </c>
-      <c r="AB18" s="4"/>
+      <c r="AB18" s="4">
+        <f t="shared" si="0"/>
+        <v>27.900000000000002</v>
+      </c>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="6"/>
@@ -2787,7 +2852,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>23</v>
       </c>
@@ -2869,7 +2934,10 @@
       <c r="AA19">
         <v>1075.8299560999999</v>
       </c>
-      <c r="AB19" s="4"/>
+      <c r="AB19" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="6"/>
@@ -2879,7 +2947,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>23</v>
       </c>
@@ -2961,7 +3029,10 @@
       <c r="AA20">
         <v>1075.8299560999999</v>
       </c>
-      <c r="AB20" s="4"/>
+      <c r="AB20" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="6"/>
@@ -2971,7 +3042,7 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>25</v>
       </c>
@@ -3053,7 +3124,10 @@
       <c r="AA21">
         <v>1830.5500488</v>
       </c>
-      <c r="AB21" s="4"/>
+      <c r="AB21" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="6"/>
@@ -3063,7 +3137,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>25</v>
       </c>
@@ -3145,7 +3219,10 @@
       <c r="AA22">
         <v>1830.5500488</v>
       </c>
-      <c r="AB22" s="4"/>
+      <c r="AB22" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="6"/>
@@ -3155,7 +3232,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>29</v>
       </c>
@@ -3237,7 +3314,10 @@
       <c r="AA23">
         <v>1534.5799560999999</v>
       </c>
-      <c r="AB23" s="4"/>
+      <c r="AB23" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="6"/>
@@ -3247,7 +3327,7 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>39</v>
       </c>
@@ -3329,7 +3409,10 @@
       <c r="AA24">
         <v>883.89801030000001</v>
       </c>
-      <c r="AB24" s="4"/>
+      <c r="AB24" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="6"/>
@@ -3339,7 +3422,7 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>39</v>
       </c>
@@ -3421,7 +3504,10 @@
       <c r="AA25">
         <v>883.89801030000001</v>
       </c>
-      <c r="AB25" s="4"/>
+      <c r="AB25" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="6"/>
@@ -3431,7 +3517,7 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>39</v>
       </c>
@@ -3513,7 +3599,10 @@
       <c r="AA26">
         <v>883.89801030000001</v>
       </c>
-      <c r="AB26" s="4"/>
+      <c r="AB26" s="4">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="6"/>
@@ -3523,7 +3612,7 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>39</v>
       </c>
@@ -3605,7 +3694,10 @@
       <c r="AA27">
         <v>883.89801030000001</v>
       </c>
-      <c r="AB27" s="4"/>
+      <c r="AB27" s="4">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="6"/>
@@ -3615,7 +3707,7 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>48</v>
       </c>
@@ -3697,7 +3789,10 @@
       <c r="AA28">
         <v>2491.5500487999998</v>
       </c>
-      <c r="AB28" s="4"/>
+      <c r="AB28" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="6"/>
@@ -3707,7 +3802,7 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>48</v>
       </c>
@@ -3789,7 +3884,10 @@
       <c r="AA29">
         <v>2491.5500487999998</v>
       </c>
-      <c r="AB29" s="4"/>
+      <c r="AB29" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="6"/>
@@ -3799,7 +3897,7 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>52</v>
       </c>
@@ -3881,7 +3979,10 @@
       <c r="AA30">
         <v>1359.6400146000001</v>
       </c>
-      <c r="AB30" s="4"/>
+      <c r="AB30" s="4">
+        <f t="shared" si="0"/>
+        <v>14.65</v>
+      </c>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="6"/>
@@ -3891,7 +3992,7 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>54</v>
       </c>
@@ -3973,7 +4074,10 @@
       <c r="AA31">
         <v>1143</v>
       </c>
-      <c r="AB31" s="4"/>
+      <c r="AB31" s="4">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="6"/>
@@ -3983,7 +4087,7 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>87</v>
       </c>
@@ -4065,7 +4169,10 @@
       <c r="AA32">
         <v>780.12902829999996</v>
       </c>
-      <c r="AB32" s="4"/>
+      <c r="AB32" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="6"/>
@@ -4075,7 +4182,7 @@
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>113</v>
       </c>
@@ -4157,7 +4264,10 @@
       <c r="AA33">
         <v>1321.7099608999999</v>
       </c>
-      <c r="AB33" s="4"/>
+      <c r="AB33" s="4">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="6"/>
@@ -4167,7 +4277,7 @@
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>122</v>
       </c>
@@ -4249,7 +4359,10 @@
       <c r="AA34">
         <v>822.00799559999996</v>
       </c>
-      <c r="AB34" s="4"/>
+      <c r="AB34" s="4">
+        <f t="shared" si="0"/>
+        <v>6.45</v>
+      </c>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="6"/>
@@ -4259,7 +4372,7 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>122</v>
       </c>
@@ -4341,8 +4454,12 @@
       <c r="AA35">
         <v>822.00799559999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB35" s="4">
+        <f t="shared" si="0"/>
+        <v>42.550000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>130</v>
       </c>
@@ -4424,8 +4541,12 @@
       <c r="AA36">
         <v>1128.3599853999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB36" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>130</v>
       </c>
@@ -4507,8 +4628,12 @@
       <c r="AA37">
         <v>1128.3599853999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB37" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>138</v>
       </c>
@@ -4590,8 +4715,12 @@
       <c r="AA38">
         <v>827.03601070000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB38" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3850000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>138</v>
       </c>
@@ -4673,8 +4802,12 @@
       <c r="AA39">
         <v>827.03601070000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB39" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3850000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>148</v>
       </c>
@@ -4756,8 +4889,12 @@
       <c r="AA40">
         <v>505.03298949999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB40" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>157</v>
       </c>
@@ -4839,8 +4976,12 @@
       <c r="AA41">
         <v>826.35601810000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB41" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>157</v>
       </c>
@@ -4922,8 +5063,12 @@
       <c r="AA42">
         <v>826.35601810000003</v>
       </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB42" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>157</v>
       </c>
@@ -5005,8 +5150,12 @@
       <c r="AA43">
         <v>826.35601810000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB43" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>157</v>
       </c>
@@ -5088,8 +5237,12 @@
       <c r="AA44">
         <v>826.35601810000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB44" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>181</v>
       </c>
@@ -5171,8 +5324,12 @@
       <c r="AA45">
         <v>1365.5799560999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB45" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>181</v>
       </c>
@@ -5254,8 +5411,12 @@
       <c r="AA46">
         <v>1365.5799560999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB46" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>209</v>
       </c>
@@ -5337,8 +5498,12 @@
       <c r="AA47">
         <v>1574.1999512</v>
       </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB47" s="4">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>209</v>
       </c>
@@ -5420,8 +5585,12 @@
       <c r="AA48">
         <v>1574.1999512</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB48" s="4">
+        <f t="shared" si="0"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>209</v>
       </c>
@@ -5503,8 +5672,12 @@
       <c r="AA49">
         <v>1574.1999512</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB49" s="4">
+        <f t="shared" si="0"/>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>209</v>
       </c>
@@ -5586,8 +5759,12 @@
       <c r="AA50">
         <v>1574.1999512</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB50" s="4">
+        <f t="shared" si="0"/>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>250</v>
       </c>
@@ -5669,8 +5846,12 @@
       <c r="AA51">
         <v>1314.2800293</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB51" s="4">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>270</v>
       </c>
@@ -5752,8 +5933,12 @@
       <c r="AA52">
         <v>1645.3900146000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB52" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>270</v>
       </c>
@@ -5835,8 +6020,12 @@
       <c r="AA53">
         <v>1645.3900146000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB53" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>286</v>
       </c>
@@ -5918,8 +6107,12 @@
       <c r="AA54">
         <v>796.27001949999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB54" s="4">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>292</v>
       </c>
@@ -6001,8 +6194,12 @@
       <c r="AA55">
         <v>1341.8199463000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB55" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>339</v>
       </c>
@@ -6084,8 +6281,12 @@
       <c r="AA56">
         <v>1159.0100098</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB56" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>339</v>
       </c>
@@ -6167,8 +6368,12 @@
       <c r="AA57">
         <v>1159.0100098</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB57" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>345</v>
       </c>
@@ -6250,8 +6455,12 @@
       <c r="AA58">
         <v>509.2999878</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB58" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>359</v>
       </c>
@@ -6333,8 +6542,12 @@
       <c r="AA59">
         <v>1770.5999756000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB59" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>359</v>
       </c>
@@ -6416,8 +6629,12 @@
       <c r="AA60">
         <v>1770.5999756000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB60" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>396</v>
       </c>
@@ -6499,8 +6716,12 @@
       <c r="AA61">
         <v>1838.8699951000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB61" s="4">
+        <f t="shared" si="0"/>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>447</v>
       </c>
@@ -6582,8 +6803,12 @@
       <c r="AA62">
         <v>1727.9699707</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB62" s="4">
+        <f t="shared" si="0"/>
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>447</v>
       </c>
@@ -6665,8 +6890,12 @@
       <c r="AA63">
         <v>1727.9699707</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB63" s="4">
+        <f t="shared" si="0"/>
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>507</v>
       </c>
@@ -6748,8 +6977,12 @@
       <c r="AA64">
         <v>1273.2700195</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB64" s="4">
+        <f t="shared" si="0"/>
+        <v>19.599999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>507</v>
       </c>
@@ -6831,8 +7064,12 @@
       <c r="AA65">
         <v>1273.2700195</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB65" s="4">
+        <f t="shared" si="0"/>
+        <v>19.599999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>523</v>
       </c>
@@ -6914,8 +7151,12 @@
       <c r="AA66">
         <v>1196.4899902</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB66" s="4">
+        <f t="shared" si="0"/>
+        <v>44.45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>630</v>
       </c>
@@ -6997,8 +7238,12 @@
       <c r="AA67">
         <v>1104.2800293</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB67" s="4" t="e">
+        <f t="shared" ref="AB67:AB130" si="1">(P67-O67)/2</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>630</v>
       </c>
@@ -7080,8 +7325,12 @@
       <c r="AA68">
         <v>1104.2800293</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB68" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>698</v>
       </c>
@@ -7163,8 +7412,12 @@
       <c r="AA69">
         <v>609.3400269</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB69" s="4">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>698</v>
       </c>
@@ -7246,8 +7499,12 @@
       <c r="AA70">
         <v>609.3400269</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB70" s="4">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>725</v>
       </c>
@@ -7329,8 +7586,12 @@
       <c r="AA71">
         <v>1466.3599853999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB71" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>806</v>
       </c>
@@ -7412,8 +7673,12 @@
       <c r="AA72">
         <v>1458.9100341999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB72" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>806</v>
       </c>
@@ -7495,8 +7760,12 @@
       <c r="AA73">
         <v>1458.9100341999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB73" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>806</v>
       </c>
@@ -7578,8 +7847,12 @@
       <c r="AA74">
         <v>1458.9100341999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB74" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>806</v>
       </c>
@@ -7661,8 +7934,12 @@
       <c r="AA75">
         <v>1458.9100341999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB75" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>807</v>
       </c>
@@ -7744,8 +8021,12 @@
       <c r="AA76">
         <v>853.03900150000004</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB76" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>807</v>
       </c>
@@ -7827,8 +8108,12 @@
       <c r="AA77">
         <v>853.03900150000004</v>
       </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB77" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>807</v>
       </c>
@@ -7910,8 +8195,12 @@
       <c r="AA78">
         <v>853.03900150000004</v>
       </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB78" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>807</v>
       </c>
@@ -7993,8 +8282,12 @@
       <c r="AA79">
         <v>853.03900150000004</v>
       </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB79" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>807</v>
       </c>
@@ -8076,8 +8369,12 @@
       <c r="AA80">
         <v>853.03900150000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB80" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>807</v>
       </c>
@@ -8159,8 +8456,12 @@
       <c r="AA81">
         <v>853.03900150000004</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB81" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>814</v>
       </c>
@@ -8242,8 +8543,12 @@
       <c r="AA82">
         <v>702.24200440000004</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB82" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>814</v>
       </c>
@@ -8325,8 +8630,12 @@
       <c r="AA83">
         <v>702.24200440000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB83" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>847</v>
       </c>
@@ -8408,8 +8717,12 @@
       <c r="AA84">
         <v>1312.0999756000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB84" s="4">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>847</v>
       </c>
@@ -8491,8 +8804,12 @@
       <c r="AA85">
         <v>1312.0999756000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB85" s="4">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>862</v>
       </c>
@@ -8574,8 +8891,12 @@
       <c r="AA86">
         <v>762.97198490000005</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB86" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>977</v>
       </c>
@@ -8657,8 +8978,12 @@
       <c r="AA87">
         <v>777.25201419999996</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB87" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>977</v>
       </c>
@@ -8740,8 +9065,12 @@
       <c r="AA88">
         <v>777.25201419999996</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB88" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>1138</v>
       </c>
@@ -8823,8 +9152,12 @@
       <c r="AA89">
         <v>1241.4899902</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB89" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>1138</v>
       </c>
@@ -8906,8 +9239,12 @@
       <c r="AA90">
         <v>1241.4899902</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB90" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>1138</v>
       </c>
@@ -8989,8 +9326,12 @@
       <c r="AA91">
         <v>1241.4899902</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB91" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>1138</v>
       </c>
@@ -9072,8 +9413,12 @@
       <c r="AA92">
         <v>1241.4899902</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB92" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>1243</v>
       </c>
@@ -9155,8 +9500,12 @@
       <c r="AA93">
         <v>487.71701050000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB93" s="4">
+        <f t="shared" si="1"/>
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>1248</v>
       </c>
@@ -9238,8 +9587,12 @@
       <c r="AA94">
         <v>1365.5799560999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB94" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>1292</v>
       </c>
@@ -9321,8 +9674,12 @@
       <c r="AA95">
         <v>612.87701419999996</v>
       </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB95" s="4">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>1542</v>
       </c>
@@ -9404,8 +9761,12 @@
       <c r="AA96">
         <v>935.27398679999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB96" s="4">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>1621</v>
       </c>
@@ -9487,8 +9848,12 @@
       <c r="AA97">
         <v>927.7150269</v>
       </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB97" s="4">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>1621</v>
       </c>
@@ -9570,8 +9935,12 @@
       <c r="AA98">
         <v>927.7150269</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB98" s="4">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>1622</v>
       </c>
@@ -9653,8 +10022,12 @@
       <c r="AA99">
         <v>1377.5300293</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB99" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>1622</v>
       </c>
@@ -9736,8 +10109,12 @@
       <c r="AA100">
         <v>1377.5300293</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB100" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>1650</v>
       </c>
@@ -9819,8 +10196,12 @@
       <c r="AA101">
         <v>1434.6199951000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB101" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>1815</v>
       </c>
@@ -9902,8 +10283,12 @@
       <c r="AA102">
         <v>743.60601810000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB102" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>1815</v>
       </c>
@@ -9985,8 +10370,12 @@
       <c r="AA103">
         <v>743.60601810000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB103" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>1822</v>
       </c>
@@ -10068,8 +10457,12 @@
       <c r="AA104">
         <v>1633.1400146000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB104" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>1837</v>
       </c>
@@ -10151,8 +10544,12 @@
       <c r="AA105">
         <v>1628.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB105" s="4">
+        <f t="shared" si="1"/>
+        <v>14.924999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>2038</v>
       </c>
@@ -10234,8 +10631,12 @@
       <c r="AA106">
         <v>706.08801270000004</v>
       </c>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB106" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>2038</v>
       </c>
@@ -10317,8 +10718,12 @@
       <c r="AA107">
         <v>706.08801270000004</v>
       </c>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB107" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>2295</v>
       </c>
@@ -10400,8 +10805,12 @@
       <c r="AA108">
         <v>900.95501709999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB108" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>2295</v>
       </c>
@@ -10483,8 +10892,12 @@
       <c r="AA109">
         <v>971.73101810000003</v>
       </c>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB109" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>2522</v>
       </c>
@@ -10566,8 +10979,12 @@
       <c r="AA110">
         <v>1202.1500243999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB110" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>2638</v>
       </c>
@@ -10649,8 +11066,12 @@
       <c r="AA111">
         <v>1652.4000243999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB111" s="4">
+        <f t="shared" si="1"/>
+        <v>48.825000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>2659</v>
       </c>
@@ -10732,8 +11153,12 @@
       <c r="AA112">
         <v>965.15801999999996</v>
       </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB112" s="4">
+        <f t="shared" si="1"/>
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>2659</v>
       </c>
@@ -10815,8 +11240,12 @@
       <c r="AA113">
         <v>965.15801999999996</v>
       </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB113" s="4">
+        <f t="shared" si="1"/>
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>2659</v>
       </c>
@@ -10898,8 +11327,12 @@
       <c r="AA114">
         <v>965.15801999999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB114" s="4">
+        <f t="shared" si="1"/>
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>2659</v>
       </c>
@@ -10981,8 +11414,12 @@
       <c r="AA115">
         <v>965.15801999999996</v>
       </c>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB115" s="4">
+        <f t="shared" si="1"/>
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>1188</v>
       </c>
@@ -11064,8 +11501,12 @@
       <c r="AA116">
         <v>649.64202880000005</v>
       </c>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB116" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>96</v>
       </c>
@@ -11147,8 +11588,12 @@
       <c r="AA117">
         <v>1065.7900391000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB117" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>96</v>
       </c>
@@ -11230,8 +11675,12 @@
       <c r="AA118">
         <v>1065.7900391000001</v>
       </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB118" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>676</v>
       </c>
@@ -11313,8 +11762,12 @@
       <c r="AA119">
         <v>854.87097170000004</v>
       </c>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB119" s="4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>676</v>
       </c>
@@ -11396,8 +11849,12 @@
       <c r="AA120">
         <v>854.87097170000004</v>
       </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB120" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>781</v>
       </c>
@@ -11479,8 +11936,12 @@
       <c r="AA121">
         <v>864.83801270000004</v>
       </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB121" s="4">
+        <f t="shared" si="1"/>
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>781</v>
       </c>
@@ -11562,8 +12023,12 @@
       <c r="AA122">
         <v>864.83801270000004</v>
       </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB122" s="4">
+        <f t="shared" si="1"/>
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>1328</v>
       </c>
@@ -11645,8 +12110,12 @@
       <c r="AA123">
         <v>864.92797849999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB123" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>1328</v>
       </c>
@@ -11728,8 +12197,12 @@
       <c r="AA124">
         <v>879.18597409999995</v>
       </c>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB124" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>1619</v>
       </c>
@@ -11811,8 +12284,12 @@
       <c r="AA125">
         <v>882.97601320000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB125" s="4">
+        <f t="shared" si="1"/>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>2530</v>
       </c>
@@ -11894,8 +12371,12 @@
       <c r="AA126">
         <v>1581.6999512</v>
       </c>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB126" s="4">
+        <f t="shared" si="1"/>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>2530</v>
       </c>
@@ -11977,8 +12458,12 @@
       <c r="AA127">
         <v>1581.6999512</v>
       </c>
-    </row>
-    <row r="128" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB127" s="4">
+        <f t="shared" si="1"/>
+        <v>39.65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9">
         <v>306</v>
       </c>
@@ -12060,8 +12545,12 @@
       <c r="AA128">
         <v>1996</v>
       </c>
-    </row>
-    <row r="129" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB128" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9">
         <v>97</v>
       </c>
@@ -12143,8 +12632,12 @@
       <c r="AA129">
         <v>1305</v>
       </c>
-    </row>
-    <row r="130" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB129" s="4">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9">
         <v>116</v>
       </c>
@@ -12226,8 +12719,12 @@
       <c r="AA130">
         <v>1541</v>
       </c>
-    </row>
-    <row r="131" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB130" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9">
         <v>116</v>
       </c>
@@ -12309,8 +12806,12 @@
       <c r="AA131">
         <v>1541</v>
       </c>
-    </row>
-    <row r="132" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB131" s="4" t="e">
+        <f t="shared" ref="AB131:AB139" si="2">(P131-O131)/2</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9">
         <v>117</v>
       </c>
@@ -12392,8 +12893,12 @@
       <c r="AA132">
         <v>2323</v>
       </c>
-    </row>
-    <row r="133" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB132" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9">
         <v>619</v>
       </c>
@@ -12475,8 +12980,12 @@
       <c r="AA133">
         <v>1594</v>
       </c>
-    </row>
-    <row r="134" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB133" s="4">
+        <f t="shared" si="2"/>
+        <v>36.550000000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9">
         <v>1493</v>
       </c>
@@ -12558,8 +13067,12 @@
       <c r="AA134">
         <v>1333</v>
       </c>
-    </row>
-    <row r="135" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB134" s="4">
+        <f t="shared" si="2"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9">
         <v>1493</v>
       </c>
@@ -12640,13 +13153,17 @@
       </c>
       <c r="AA135">
         <v>1333</v>
+      </c>
+      <c r="AB135" s="4">
+        <f t="shared" si="2"/>
+        <v>30.7</v>
       </c>
       <c r="AN135"/>
       <c r="AO135"/>
       <c r="AP135"/>
       <c r="AQ135"/>
     </row>
-    <row r="136" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9">
         <v>1934</v>
       </c>
@@ -12727,13 +13244,17 @@
       </c>
       <c r="AA136">
         <v>2056</v>
+      </c>
+      <c r="AB136" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AN136"/>
       <c r="AO136"/>
       <c r="AP136"/>
       <c r="AQ136"/>
     </row>
-    <row r="137" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9">
         <v>2516</v>
       </c>
@@ -12815,13 +13336,17 @@
       </c>
       <c r="AA137">
         <v>1063</v>
+      </c>
+      <c r="AB137" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AN137"/>
       <c r="AO137"/>
       <c r="AP137"/>
       <c r="AQ137"/>
     </row>
-    <row r="138" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
         <v>2516</v>
       </c>
@@ -12903,13 +13428,17 @@
       </c>
       <c r="AA138">
         <v>1063</v>
+      </c>
+      <c r="AB138" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AN138"/>
       <c r="AO138"/>
       <c r="AP138"/>
       <c r="AQ138"/>
     </row>
-    <row r="139" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
         <v>2516</v>
       </c>
@@ -12991,6 +13520,10 @@
       </c>
       <c r="AA139">
         <v>1063</v>
+      </c>
+      <c r="AB139" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
       <c r="AN139"/>
       <c r="AO139"/>
@@ -13012,16 +13545,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE2B149-B2A1-4AB3-A806-825BF9D726CF}">
   <dimension ref="A1:AP127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M73" workbookViewId="0">
-      <selection activeCell="A84" activeCellId="1" sqref="A79:XFD79 A84:XFD84"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -13106,8 +13639,11 @@
       <c r="AB1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>148</v>
       </c>
@@ -13151,10 +13687,10 @@
         <v>4</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>29</v>
@@ -13192,8 +13728,11 @@
       <c r="AB2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2038</v>
       </c>
@@ -13278,8 +13817,11 @@
       <c r="AB3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>459</v>
       </c>
@@ -13364,8 +13906,11 @@
       <c r="AB4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2038</v>
       </c>
@@ -13450,8 +13995,11 @@
       <c r="AB5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2659</v>
       </c>
@@ -13536,8 +14084,12 @@
       <c r="AB6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6">
+        <f>(P6-O6)/2</f>
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>698</v>
       </c>
@@ -13622,8 +14174,12 @@
       <c r="AB7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7">
+        <f>(P7-O7)/2</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>292</v>
       </c>
@@ -13708,8 +14264,11 @@
       <c r="AB8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>459</v>
       </c>
@@ -13794,8 +14353,11 @@
       <c r="AB9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>209</v>
       </c>
@@ -13880,8 +14442,12 @@
       <c r="AB10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10">
+        <f>(P10-O10)/2</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>209</v>
       </c>
@@ -13966,8 +14532,12 @@
       <c r="AB11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11">
+        <f>(P11-O11)/2</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>862</v>
       </c>
@@ -14052,8 +14622,12 @@
       <c r="AB12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12">
+        <f>(P12-O12)/2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2522</v>
       </c>
@@ -14138,8 +14712,11 @@
       <c r="AB13" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2659</v>
       </c>
@@ -14224,8 +14801,12 @@
       <c r="AB14" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14">
+        <f>(P14-O14)/2</f>
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2295</v>
       </c>
@@ -14310,8 +14891,11 @@
       <c r="AB15" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>630</v>
       </c>
@@ -14396,8 +14980,11 @@
       <c r="AB16" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>339</v>
       </c>
@@ -14482,8 +15069,11 @@
       <c r="AB17" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>523</v>
       </c>
@@ -14568,8 +15158,12 @@
       <c r="AB18" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18">
+        <f>(P18-O18)/2</f>
+        <v>44.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>359</v>
       </c>
@@ -14654,8 +15248,11 @@
       <c r="AB19" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2070</v>
       </c>
@@ -14740,8 +15337,11 @@
       <c r="AB20" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2659</v>
       </c>
@@ -14826,8 +15426,12 @@
       <c r="AB21" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21">
+        <f>(P21-O21)/2</f>
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2295</v>
       </c>
@@ -14912,8 +15516,11 @@
       <c r="AB22" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>806</v>
       </c>
@@ -14998,8 +15605,11 @@
       <c r="AB23" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>977</v>
       </c>
@@ -15084,8 +15694,11 @@
       <c r="AB24" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>698</v>
       </c>
@@ -15170,8 +15783,12 @@
       <c r="AB25" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC25">
+        <f>(P25-O25)/2</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>459</v>
       </c>
@@ -15256,8 +15873,11 @@
       <c r="AB26" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>345</v>
       </c>
@@ -15342,8 +15962,11 @@
       <c r="AB27" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2659</v>
       </c>
@@ -15428,8 +16051,12 @@
       <c r="AB28" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC28">
+        <f>(P28-O28)/2</f>
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>8</v>
       </c>
@@ -15514,8 +16141,11 @@
       <c r="AB29" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2070</v>
       </c>
@@ -15600,8 +16230,11 @@
       <c r="AB30" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>10</v>
       </c>
@@ -15686,8 +16319,12 @@
       <c r="AB31" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC31">
+        <f>(P31-O31)/2</f>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>459</v>
       </c>
@@ -15772,8 +16409,11 @@
       <c r="AB32" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>359</v>
       </c>
@@ -15858,8 +16498,11 @@
       <c r="AB33" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1815</v>
       </c>
@@ -15944,8 +16587,11 @@
       <c r="AB34" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>10</v>
       </c>
@@ -16030,8 +16676,12 @@
       <c r="AB35" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC35">
+        <f>(P35-O35)/2</f>
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>6</v>
       </c>
@@ -16116,22 +16766,26 @@
       <c r="AB36" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC36">
+        <f>(P36-O36)/2</f>
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>23</v>
+        <v>1621</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="C37" s="2">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="2">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>76</v>
@@ -16142,82 +16796,86 @@
       <c r="H37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>29</v>
+      <c r="I37" s="2">
+        <v>7</v>
+      </c>
+      <c r="J37" s="2">
+        <v>33</v>
+      </c>
+      <c r="K37" s="2">
+        <v>18.3</v>
       </c>
       <c r="L37" s="2">
         <v>2001</v>
       </c>
       <c r="M37" s="2">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>29</v>
+      <c r="O37" s="2">
+        <v>5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>89</v>
       </c>
       <c r="Q37" s="2">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="R37" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>29</v>
+        <v>55.2</v>
+      </c>
+      <c r="S37" s="2">
+        <v>13.2</v>
       </c>
       <c r="T37" s="2">
         <v>0</v>
       </c>
-      <c r="U37" s="7">
-        <v>-76.923828116832297</v>
-      </c>
-      <c r="V37" s="7">
-        <v>38.731161289875402</v>
+      <c r="U37" s="2">
+        <v>-88.926043252578197</v>
+      </c>
+      <c r="V37" s="2">
+        <v>41.8597629640675</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X37">
-        <v>10.7442999</v>
+        <v>34.707500500000002</v>
       </c>
       <c r="Y37">
-        <v>857.83001709999996</v>
+        <v>1070.6099853999999</v>
       </c>
       <c r="Z37">
-        <v>13.2706003</v>
+        <v>8.9406300000000005</v>
       </c>
       <c r="AA37">
-        <v>1075.8299560999999</v>
+        <v>927.7150269</v>
       </c>
       <c r="AB37" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC37">
+        <f>(P37-O37)/2</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
+        <v>1621</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C38" s="2">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>76</v>
@@ -16228,14 +16886,14 @@
       <c r="H38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>29</v>
+      <c r="I38" s="2">
+        <v>7</v>
+      </c>
+      <c r="J38" s="2">
+        <v>33</v>
+      </c>
+      <c r="K38" s="2">
+        <v>18.3</v>
       </c>
       <c r="L38" s="2">
         <v>2001</v>
@@ -16246,64 +16904,68 @@
       <c r="N38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>29</v>
+      <c r="O38" s="2">
+        <v>5</v>
+      </c>
+      <c r="P38" s="2">
+        <v>89</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R38" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="S38" s="2">
+        <v>13.2</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
       </c>
       <c r="U38" s="2">
-        <v>-60.149543343533402</v>
+        <v>-88.926043252578197</v>
       </c>
       <c r="V38" s="2">
-        <v>-1.97433119130239</v>
+        <v>41.8597629640675</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="X38">
-        <v>35.661300699999998</v>
+        <v>34.707500500000002</v>
       </c>
       <c r="Y38">
-        <v>44.971698799999999</v>
+        <v>1070.6099853999999</v>
       </c>
       <c r="Z38">
-        <v>26.328199399999999</v>
+        <v>8.9406300000000005</v>
       </c>
       <c r="AA38">
-        <v>2491.5500487999998</v>
+        <v>927.7150269</v>
       </c>
       <c r="AB38" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC38">
+        <f>(P38-O38)/2</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>48</v>
-      </c>
-      <c r="B39" t="s">
-        <v>85</v>
+        <v>23</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C39" s="2">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E39" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>76</v>
@@ -16327,7 +16989,7 @@
         <v>2001</v>
       </c>
       <c r="M39" s="2">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>4</v>
@@ -16338,11 +17000,11 @@
       <c r="P39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>29</v>
+      <c r="Q39" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="R39" s="2">
+        <v>9.1999999999999993</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>29</v>
@@ -16350,46 +17012,49 @@
       <c r="T39" s="2">
         <v>0</v>
       </c>
-      <c r="U39" s="2">
-        <v>-60.149543343533402</v>
-      </c>
-      <c r="V39" s="2">
-        <v>-1.97433119130239</v>
+      <c r="U39" s="7">
+        <v>-76.923828116832297</v>
+      </c>
+      <c r="V39" s="7">
+        <v>38.731161289875402</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="X39">
-        <v>35.661300699999998</v>
+        <v>10.7442999</v>
       </c>
       <c r="Y39">
-        <v>44.971698799999999</v>
+        <v>857.83001709999996</v>
       </c>
       <c r="Z39">
-        <v>26.328199399999999</v>
+        <v>13.2706003</v>
       </c>
       <c r="AA39">
-        <v>2491.5500487999998</v>
+        <v>1075.8299560999999</v>
       </c>
       <c r="AB39" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>181</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
       </c>
       <c r="C40" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E40" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>76</v>
@@ -16407,13 +17072,13 @@
         <v>29</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L40" s="2">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="M40" s="2">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>4</v>
@@ -16424,11 +17089,11 @@
       <c r="P40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q40" s="2">
-        <v>11</v>
-      </c>
-      <c r="R40" s="2">
-        <v>126</v>
+      <c r="Q40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>29</v>
@@ -16437,45 +17102,48 @@
         <v>0</v>
       </c>
       <c r="U40" s="2">
-        <v>-84.471000856759503</v>
+        <v>-60.149543343533402</v>
       </c>
       <c r="V40" s="2">
-        <v>34.1342531931151</v>
+        <v>-1.97433119130239</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="X40">
-        <v>16.0130005</v>
+        <v>35.661300699999998</v>
       </c>
       <c r="Y40">
-        <v>755.01202390000003</v>
+        <v>44.971698799999999</v>
       </c>
       <c r="Z40">
-        <v>15.891500499999999</v>
+        <v>26.328199399999999</v>
       </c>
       <c r="AA40">
-        <v>1365.5799560999999</v>
+        <v>2491.5500487999998</v>
       </c>
       <c r="AB40" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>1621</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>143</v>
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
       </c>
       <c r="C41" s="2">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E41" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>76</v>
@@ -16486,14 +17154,14 @@
       <c r="H41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="2">
-        <v>7</v>
-      </c>
-      <c r="J41" s="2">
-        <v>33</v>
-      </c>
-      <c r="K41" s="2">
-        <v>18.3</v>
+      <c r="I41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="L41" s="2">
         <v>2001</v>
@@ -16504,64 +17172,67 @@
       <c r="N41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="2">
-        <v>5</v>
-      </c>
-      <c r="P41" s="2">
-        <v>89</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R41" s="2">
-        <v>55.2</v>
-      </c>
-      <c r="S41" s="2">
-        <v>13.2</v>
+      <c r="O41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
       </c>
       <c r="U41" s="2">
-        <v>-88.926043252578197</v>
+        <v>-60.149543343533402</v>
       </c>
       <c r="V41" s="2">
-        <v>41.8597629640675</v>
+        <v>-1.97433119130239</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="X41">
-        <v>34.707500500000002</v>
+        <v>35.661300699999998</v>
       </c>
       <c r="Y41">
-        <v>1070.6099853999999</v>
+        <v>44.971698799999999</v>
       </c>
       <c r="Z41">
-        <v>8.9406300000000005</v>
+        <v>26.328199399999999</v>
       </c>
       <c r="AA41">
-        <v>927.7150269</v>
+        <v>2491.5500487999998</v>
       </c>
       <c r="AB41" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>1621</v>
+        <v>181</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="2">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>76</v>
@@ -16572,68 +17243,71 @@
       <c r="H42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="2">
-        <v>7</v>
-      </c>
-      <c r="J42" s="2">
-        <v>33</v>
-      </c>
-      <c r="K42" s="2">
-        <v>18.3</v>
+      <c r="I42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="L42" s="2">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="M42" s="2">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="2">
-        <v>5</v>
-      </c>
-      <c r="P42" s="2">
-        <v>89</v>
+      <c r="O42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Q42" s="2">
-        <v>0.1</v>
+        <v>11</v>
       </c>
       <c r="R42" s="2">
-        <v>55.2</v>
-      </c>
-      <c r="S42" s="2">
-        <v>13.2</v>
+        <v>126</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="T42" s="2">
         <v>0</v>
       </c>
       <c r="U42" s="2">
-        <v>-88.926043252578197</v>
+        <v>-84.471000856759503</v>
       </c>
       <c r="V42" s="2">
-        <v>41.8597629640675</v>
+        <v>34.1342531931151</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="X42">
-        <v>34.707500500000002</v>
+        <v>16.0130005</v>
       </c>
       <c r="Y42">
-        <v>1070.6099853999999</v>
+        <v>755.01202390000003</v>
       </c>
       <c r="Z42">
-        <v>8.9406300000000005</v>
+        <v>15.891500499999999</v>
       </c>
       <c r="AA42">
-        <v>927.7150269</v>
+        <v>1365.5799560999999</v>
       </c>
       <c r="AB42" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1622</v>
       </c>
@@ -16718,8 +17392,11 @@
       <c r="AB43" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>1822</v>
       </c>
@@ -16804,8 +17481,11 @@
       <c r="AB44" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1138</v>
       </c>
@@ -16890,8 +17570,11 @@
       <c r="AB45" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>116</v>
       </c>
@@ -16976,8 +17659,11 @@
       <c r="AB46" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>806</v>
       </c>
@@ -17062,8 +17748,11 @@
       <c r="AB47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>157</v>
       </c>
@@ -17148,8 +17837,11 @@
       <c r="AB48" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>157</v>
       </c>
@@ -17234,8 +17926,11 @@
       <c r="AB49" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>1493</v>
       </c>
@@ -17320,8 +18015,12 @@
       <c r="AB50" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC50">
+        <f>(P50-O50)/2</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>209</v>
       </c>
@@ -17406,8 +18105,12 @@
       <c r="AB51" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC51">
+        <f>(P51-O51)/2</f>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>209</v>
       </c>
@@ -17492,8 +18195,12 @@
       <c r="AB52" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC52">
+        <f>(P52-O52)/2</f>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>130</v>
       </c>
@@ -17578,8 +18285,11 @@
       <c r="AB53" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>23</v>
       </c>
@@ -17664,8 +18374,11 @@
       <c r="AB54" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>725</v>
       </c>
@@ -17750,8 +18463,12 @@
       <c r="AB55" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC55">
+        <f>(P55-O55)/2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>286</v>
       </c>
@@ -17836,8 +18553,12 @@
       <c r="AB56" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC56">
+        <f>(P56-O56)/2</f>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>507</v>
       </c>
@@ -17922,8 +18643,12 @@
       <c r="AB57" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC57">
+        <f>(P57-O57)/2</f>
+        <v>19.599999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>396</v>
       </c>
@@ -18008,8 +18733,12 @@
       <c r="AB58" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC58">
+        <f>(P58-O58)/2</f>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>130</v>
       </c>
@@ -18094,8 +18823,11 @@
       <c r="AB59" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>157</v>
       </c>
@@ -18180,8 +18912,11 @@
       <c r="AB60" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>54</v>
       </c>
@@ -18266,8 +19001,12 @@
       <c r="AB61" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC61">
+        <f>(P61-O61)/2</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>138</v>
       </c>
@@ -18352,8 +19091,12 @@
       <c r="AB62" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC62">
+        <f>(P62-O62)/2</f>
+        <v>7.3850000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>1622</v>
       </c>
@@ -18438,8 +19181,11 @@
       <c r="AB63" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>29</v>
       </c>
@@ -18524,22 +19270,25 @@
       <c r="AB64" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>181</v>
+        <v>847</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E65" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>76</v>
@@ -18557,28 +19306,28 @@
         <v>29</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L65" s="2">
-        <v>1999</v>
-      </c>
-      <c r="M65" s="2">
-        <v>1997</v>
+        <v>29</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>11</v>
-      </c>
-      <c r="R65" s="2">
-        <v>126</v>
+      <c r="O65" s="2">
+        <v>6</v>
+      </c>
+      <c r="P65" s="2">
+        <v>64</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>29</v>
@@ -18587,45 +19336,49 @@
         <v>-0.4</v>
       </c>
       <c r="U65" s="2">
-        <v>-84.471000856759503</v>
+        <v>175.255210413573</v>
       </c>
       <c r="V65" s="2">
-        <v>34.1342531931151</v>
+        <v>-37.777371813615403</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="X65">
-        <v>16.0130005</v>
+        <v>16.649799300000002</v>
       </c>
       <c r="Y65">
-        <v>755.01202390000003</v>
+        <v>362.2999878</v>
       </c>
       <c r="Z65">
-        <v>15.891500499999999</v>
+        <v>13.8401003</v>
       </c>
       <c r="AA65">
-        <v>1365.5799560999999</v>
+        <v>1312.0999756000001</v>
       </c>
       <c r="AB65" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>847</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="2">
-        <v>2011</v>
+      <c r="AC65">
+        <f>(P65-O65)/2</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
+        <v>117</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="12">
+        <v>2007</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E66" s="2">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>76</v>
@@ -18636,29 +19389,29 @@
       <c r="H66" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>29</v>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>84</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L66" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>48</v>
+      <c r="L66" s="2">
+        <v>2003</v>
+      </c>
+      <c r="M66" s="2">
+        <v>2003</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="O66" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P66" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>29</v>
@@ -18673,45 +19426,49 @@
         <v>-0.4</v>
       </c>
       <c r="U66" s="2">
-        <v>175.255210413573</v>
+        <v>-59.9815334232051</v>
       </c>
       <c r="V66" s="2">
-        <v>-37.777371813615403</v>
+        <v>-3.0749098969769202</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="X66">
-        <v>16.649799300000002</v>
+        <v>46.387699099999999</v>
       </c>
       <c r="Y66">
-        <v>362.2999878</v>
+        <v>52.358200099999998</v>
       </c>
       <c r="Z66">
-        <v>13.8401003</v>
+        <v>26.864000300000001</v>
       </c>
       <c r="AA66">
-        <v>1312.0999756000001</v>
+        <v>2323</v>
       </c>
       <c r="AB66" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
-        <v>117</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="12">
-        <v>2007</v>
+      <c r="AC66">
+        <f>(P66-O66)/2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>181</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2009</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E67" s="2">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>76</v>
@@ -18722,35 +19479,35 @@
       <c r="H67" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="2">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2">
-        <v>84</v>
+      <c r="I67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L67" s="2">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="M67" s="2">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-      <c r="P67" s="2">
-        <v>100</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>11</v>
+      </c>
+      <c r="R67" s="2">
+        <v>126</v>
       </c>
       <c r="S67" s="2" t="s">
         <v>29</v>
@@ -18759,31 +19516,34 @@
         <v>-0.4</v>
       </c>
       <c r="U67" s="2">
-        <v>-59.9815334232051</v>
+        <v>-84.471000856759503</v>
       </c>
       <c r="V67" s="2">
-        <v>-3.0749098969769202</v>
+        <v>34.1342531931151</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="X67">
-        <v>46.387699099999999</v>
+        <v>16.0130005</v>
       </c>
       <c r="Y67">
-        <v>52.358200099999998</v>
+        <v>755.01202390000003</v>
       </c>
       <c r="Z67">
-        <v>26.864000300000001</v>
+        <v>15.891500499999999</v>
       </c>
       <c r="AA67">
-        <v>2323</v>
+        <v>1365.5799560999999</v>
       </c>
       <c r="AB67" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>1493</v>
       </c>
@@ -18868,8 +19628,12 @@
       <c r="AB68" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC68">
+        <f>(P68-O68)/2</f>
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>157</v>
       </c>
@@ -18954,8 +19718,11 @@
       <c r="AB69" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>10</v>
       </c>
@@ -19040,8 +19807,12 @@
       <c r="AB70" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC70">
+        <f>(P70-O70)/2</f>
+        <v>27.900000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>10</v>
       </c>
@@ -19126,8 +19897,12 @@
       <c r="AB71" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC71">
+        <f>(P71-O71)/2</f>
+        <v>27.900000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>630</v>
       </c>
@@ -19212,8 +19987,11 @@
       <c r="AB72" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>977</v>
       </c>
@@ -19298,8 +20076,11 @@
       <c r="AB73" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>339</v>
       </c>
@@ -19384,8 +20165,11 @@
       <c r="AB74" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC74" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>847</v>
       </c>
@@ -19470,8 +20254,12 @@
       <c r="AB75" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC75">
+        <f>(P75-O75)/2</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>270</v>
       </c>
@@ -19556,8 +20344,12 @@
       <c r="AB76" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC76">
+        <f>(P76-O76)/2</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>270</v>
       </c>
@@ -19642,22 +20434,26 @@
       <c r="AB77" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>1815</v>
-      </c>
-      <c r="B78" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="2">
-        <v>2018</v>
+      <c r="AC77">
+        <f>(P77-O77)/2</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A78" s="12">
+        <v>97</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="12">
+        <v>2006</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E78" s="2">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>76</v>
@@ -19675,75 +20471,79 @@
         <v>29</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L78" s="2">
-        <v>2013</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>48</v>
+        <v>2004</v>
+      </c>
+      <c r="M78" s="2">
+        <v>2004</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0</v>
+      </c>
+      <c r="P78" s="2">
+        <v>66</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R78" s="2">
+        <v>9.3000000000000007</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T78" s="2">
+      <c r="T78" s="7">
         <v>0</v>
       </c>
       <c r="U78" s="2">
-        <v>108.935981718403</v>
+        <v>-81.711551456682102</v>
       </c>
       <c r="V78" s="2">
-        <v>34.023800959842099</v>
+        <v>30.2237018019703</v>
       </c>
       <c r="W78" s="2" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="X78">
-        <v>71.396202099999996</v>
+        <v>38.035598800000002</v>
       </c>
       <c r="Y78">
-        <v>841.35198969999999</v>
+        <v>569.27801509999995</v>
       </c>
       <c r="Z78">
-        <v>8.5302600999999996</v>
+        <v>20.690900800000001</v>
       </c>
       <c r="AA78">
-        <v>743.60601810000003</v>
+        <v>1305</v>
       </c>
       <c r="AB78" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="12">
-        <v>97</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C79" s="12">
-        <v>2006</v>
+      <c r="AC78">
+        <f>(P78-O78)/2</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>1815</v>
+      </c>
+      <c r="B79" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2018</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E79" s="2">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>76</v>
@@ -19761,68 +20561,71 @@
         <v>29</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L79" s="2">
-        <v>2004</v>
-      </c>
-      <c r="M79" s="2">
-        <v>2004</v>
+        <v>2013</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O79" s="2">
+        <v>2</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T79" s="2">
         <v>0</v>
       </c>
-      <c r="P79" s="2">
-        <v>66</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R79" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="S79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T79" s="7">
-        <v>0</v>
-      </c>
       <c r="U79" s="2">
-        <v>-81.711551456682102</v>
+        <v>108.935981718403</v>
       </c>
       <c r="V79" s="2">
-        <v>30.2237018019703</v>
+        <v>34.023800959842099</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="X79">
-        <v>38.035598800000002</v>
+        <v>71.396202099999996</v>
       </c>
       <c r="Y79">
-        <v>569.27801509999995</v>
+        <v>841.35198969999999</v>
       </c>
       <c r="Z79">
-        <v>20.690900800000001</v>
+        <v>8.5302600999999996</v>
       </c>
       <c r="AA79">
-        <v>1305</v>
+        <v>743.60601810000003</v>
       </c>
       <c r="AB79" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="AC79" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A80" s="16">
         <v>2070</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="16">
         <v>2020</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -19900,15 +20703,18 @@
       <c r="AB80" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="AC80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A81" s="16">
         <v>806</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="16">
         <v>2014</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -19986,15 +20792,18 @@
       <c r="AB81" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="AC81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A82" s="16">
         <v>806</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="16">
         <v>2014</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -20072,8 +20881,11 @@
       <c r="AB82" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>1138</v>
       </c>
@@ -20158,8 +20970,11 @@
       <c r="AB83" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>1934</v>
       </c>
@@ -20244,8 +21059,11 @@
       <c r="AB84" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>96</v>
       </c>
@@ -20330,8 +21148,12 @@
       <c r="AB85" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AC85">
+        <f>(P85-O85)/2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>96</v>
       </c>
@@ -20416,8 +21238,12 @@
       <c r="AB86" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="87" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC86">
+        <f>(P86-O86)/2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>1619</v>
       </c>
@@ -20502,8 +21328,12 @@
       <c r="AB87" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="88" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC87">
+        <f>(P87-O87)/2</f>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>676</v>
       </c>
@@ -20588,8 +21418,12 @@
       <c r="AB88" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="89" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC88">
+        <f>(P88-O88)/2</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>1188</v>
       </c>
@@ -20674,8 +21508,11 @@
       <c r="AB89" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="90" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC89" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>676</v>
       </c>
@@ -20760,8 +21597,12 @@
       <c r="AB90" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="91" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC90">
+        <f>(P90-O90)/2</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>781</v>
       </c>
@@ -20845,13 +21686,17 @@
       </c>
       <c r="AB91" t="s">
         <v>161</v>
+      </c>
+      <c r="AC91">
+        <f>(P91-O91)/2</f>
+        <v>30.3</v>
       </c>
       <c r="AM91"/>
       <c r="AN91"/>
       <c r="AO91"/>
       <c r="AP91"/>
     </row>
-    <row r="92" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>781</v>
       </c>
@@ -20935,13 +21780,17 @@
       </c>
       <c r="AB92" t="s">
         <v>161</v>
+      </c>
+      <c r="AC92">
+        <f>(P92-O92)/2</f>
+        <v>30.3</v>
       </c>
       <c r="AM92"/>
       <c r="AN92"/>
       <c r="AO92"/>
       <c r="AP92"/>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -20966,7 +21815,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -20991,7 +21840,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -21016,7 +21865,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -21041,7 +21890,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -21066,7 +21915,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -21091,7 +21940,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -21116,7 +21965,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -21141,7 +21990,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -21166,7 +22015,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -21191,7 +22040,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -21216,7 +22065,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="C104" s="2"/>
       <c r="E104" s="2"/>
@@ -21239,7 +22088,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="C105" s="2"/>
       <c r="E105" s="2"/>
@@ -21262,7 +22111,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -21287,7 +22136,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -21312,7 +22161,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -21337,7 +22186,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -21362,7 +22211,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -21387,7 +22236,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -21412,7 +22261,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -21437,7 +22286,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -21462,7 +22311,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="8"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -21487,7 +22336,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="8"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="C115" s="2"/>
       <c r="E115" s="2"/>
@@ -21510,7 +22359,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="C116" s="2"/>
       <c r="E116" s="2"/>
@@ -21533,7 +22382,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -21558,7 +22407,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -21583,7 +22432,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -21608,7 +22457,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -21633,7 +22482,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -21658,7 +22507,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -21683,7 +22532,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -21708,7 +22557,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -21733,7 +22582,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -21758,7 +22607,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -21783,7 +22632,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -21809,9 +22658,9 @@
       <c r="W127" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB86" xr:uid="{0EE2B149-B2A1-4AB3-A806-825BF9D726CF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB92">
-      <sortCondition ref="AB1:AB86"/>
+  <autoFilter ref="A1:AC92" xr:uid="{0EE2B149-B2A1-4AB3-A806-825BF9D726CF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC92">
+      <sortCondition ref="AB1:AB92"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -21822,13 +22671,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB89D24-12F2-4895-BFBB-E513F5CF3A80}">
   <dimension ref="A1:AQ48"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="AB1" sqref="A1:AB48"/>
+    <sheetView topLeftCell="G20" workbookViewId="0">
+      <selection sqref="A1:AC48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -21913,15 +22762,18 @@
       <c r="AB1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="AC1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>459</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="16">
         <v>2008</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -21958,10 +22810,10 @@
         <v>4</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q2" s="2">
         <v>0.33</v>
@@ -21999,8 +22851,12 @@
       <c r="AB2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2">
+        <f>(R2-Q2)/2</f>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>113</v>
       </c>
@@ -22085,8 +22941,11 @@
       <c r="AB3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1292</v>
       </c>
@@ -22171,8 +23030,11 @@
       <c r="AB4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>807</v>
       </c>
@@ -22216,10 +23078,10 @@
         <v>4</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>29</v>
@@ -22257,8 +23119,11 @@
       <c r="AB5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>116</v>
       </c>
@@ -22302,10 +23167,10 @@
         <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>29</v>
@@ -22343,8 +23208,11 @@
       <c r="AB6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>2516</v>
       </c>
@@ -22388,10 +23256,10 @@
         <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>29</v>
@@ -22429,8 +23297,11 @@
       <c r="AB7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>2516</v>
       </c>
@@ -22474,10 +23345,10 @@
         <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>29</v>
@@ -22515,8 +23386,11 @@
       <c r="AB8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>807</v>
       </c>
@@ -22560,10 +23434,10 @@
         <v>4</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>29</v>
@@ -22601,8 +23475,11 @@
       <c r="AB9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1243</v>
       </c>
@@ -22687,8 +23564,12 @@
       <c r="AB10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10">
+        <f>(R10-Q10)/2</f>
+        <v>282.85000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2638</v>
       </c>
@@ -22773,61 +23654,64 @@
       <c r="AB11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>25</v>
+        <v>1542</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>29</v>
+      <c r="I12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2.5</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L12" s="2">
-        <v>1996</v>
+        <v>2012</v>
       </c>
       <c r="M12" s="2">
-        <v>1990</v>
+        <v>2012</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P12" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="R12" s="2">
-        <v>49.3</v>
+        <v>87</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>29</v>
@@ -22836,45 +23720,48 @@
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>-83.454456147153707</v>
+        <v>-77.0334996369386</v>
       </c>
       <c r="V12" s="2">
-        <v>35.149743166273304</v>
+        <v>44.374914220151098</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="X12">
-        <v>10.1726999</v>
+        <v>15.611800199999999</v>
       </c>
       <c r="Y12">
-        <v>710.83099370000002</v>
+        <v>1056.5799560999999</v>
       </c>
       <c r="Z12">
-        <v>12.057399699999999</v>
+        <v>6.7595600999999998</v>
       </c>
       <c r="AA12">
-        <v>1830.5500488</v>
+        <v>935.27398679999999</v>
       </c>
       <c r="AB12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1999</v>
+      <c r="AC12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>2516</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2020</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>3</v>
@@ -22895,25 +23782,25 @@
         <v>29</v>
       </c>
       <c r="L13" s="2">
-        <v>1996</v>
-      </c>
-      <c r="M13" s="2">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="R13" s="2">
-        <v>49.3</v>
+        <v>31</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>29</v>
@@ -22922,31 +23809,34 @@
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>-83.454456147153707</v>
+        <v>145.030370694666</v>
       </c>
       <c r="V13" s="2">
-        <v>35.149743166273304</v>
+        <v>43.319466718753098</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="X13">
-        <v>10.1726999</v>
+        <v>38.728900899999999</v>
       </c>
       <c r="Y13">
-        <v>710.83099370000002</v>
+        <v>872.51501459999997</v>
       </c>
       <c r="Z13">
-        <v>12.057399699999999</v>
+        <v>6.8375501999999999</v>
       </c>
       <c r="AA13">
-        <v>1830.5500488</v>
+        <v>1063</v>
       </c>
       <c r="AB13" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>122</v>
       </c>
@@ -23031,61 +23921,65 @@
       <c r="AB14" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC14">
+        <f>(R14-Q14)/2</f>
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>1542</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="C15" s="2">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2.5</v>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L15" s="2">
-        <v>2012</v>
+        <v>1996</v>
       </c>
       <c r="M15" s="2">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O15" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>87</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>29</v>
+        <v>78</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="R15" s="2">
+        <v>49.3</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>29</v>
@@ -23094,45 +23988,49 @@
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>-77.0334996369386</v>
+        <v>-83.454456147153707</v>
       </c>
       <c r="V15" s="2">
-        <v>44.374914220151098</v>
+        <v>35.149743166273304</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="X15">
-        <v>15.611800199999999</v>
+        <v>10.1726999</v>
       </c>
       <c r="Y15">
-        <v>1056.5799560999999</v>
+        <v>710.83099370000002</v>
       </c>
       <c r="Z15">
-        <v>6.7595600999999998</v>
+        <v>12.057399699999999</v>
       </c>
       <c r="AA15">
-        <v>935.27398679999999</v>
+        <v>1830.5500488</v>
       </c>
       <c r="AB15" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>2516</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2020</v>
+      <c r="AC15">
+        <f>(R15-Q15)/2</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1999</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>3</v>
@@ -23153,25 +24051,25 @@
         <v>29</v>
       </c>
       <c r="L16" s="2">
-        <v>2018</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>183</v>
+        <v>1996</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1990</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="R16" s="2">
+        <v>49.3</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>29</v>
@@ -23180,31 +24078,35 @@
         <v>0</v>
       </c>
       <c r="U16" s="2">
-        <v>145.030370694666</v>
+        <v>-83.454456147153707</v>
       </c>
       <c r="V16" s="2">
-        <v>43.319466718753098</v>
+        <v>35.149743166273304</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="X16">
-        <v>38.728900899999999</v>
+        <v>10.1726999</v>
       </c>
       <c r="Y16">
-        <v>872.51501459999997</v>
+        <v>710.83099370000002</v>
       </c>
       <c r="Z16">
-        <v>6.8375501999999999</v>
+        <v>12.057399699999999</v>
       </c>
       <c r="AA16">
-        <v>1063</v>
+        <v>1830.5500488</v>
       </c>
       <c r="AB16" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16">
+        <f>(R16-Q16)/2</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>447</v>
       </c>
@@ -23289,8 +24191,12 @@
       <c r="AB17" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17">
+        <f>(R17-Q17)/2</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1138</v>
       </c>
@@ -23334,10 +24240,10 @@
         <v>4</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>29</v>
@@ -23375,8 +24281,11 @@
       <c r="AB18" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>807</v>
       </c>
@@ -23420,10 +24329,10 @@
         <v>4</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>29</v>
@@ -23461,8 +24370,11 @@
       <c r="AB19" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -23506,10 +24418,10 @@
         <v>4</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="2">
         <v>6.5</v>
@@ -23547,8 +24459,12 @@
       <c r="AB20" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20">
+        <f>(R20-Q20)/2</f>
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>306</v>
       </c>
@@ -23633,8 +24549,11 @@
       <c r="AB21" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>814</v>
       </c>
@@ -23678,10 +24597,10 @@
         <v>4</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>29</v>
@@ -23719,8 +24638,11 @@
       <c r="AB22" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>459</v>
       </c>
@@ -23764,10 +24686,10 @@
         <v>4</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="2">
         <v>0.33</v>
@@ -23805,8 +24727,12 @@
       <c r="AB23" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23">
+        <f>(R23-Q23)/2</f>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>87</v>
       </c>
@@ -23891,8 +24817,11 @@
       <c r="AB24" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>39</v>
       </c>
@@ -23977,8 +24906,12 @@
       <c r="AB25" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC25">
+        <f>(R25-Q25)/2</f>
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>39</v>
       </c>
@@ -24063,8 +24996,12 @@
       <c r="AB26" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC26">
+        <f>(R26-Q26)/2</f>
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>39</v>
       </c>
@@ -24149,15 +25086,19 @@
       <c r="AB27" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="AC27">
+        <f>(R27-Q27)/2</f>
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
         <v>1650</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="16">
         <v>2009</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -24194,10 +25135,10 @@
         <v>188</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="2">
         <v>1.81</v>
@@ -24235,15 +25176,19 @@
       <c r="AB28" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="AC28">
+        <f>(R28-Q28)/2</f>
+        <v>7.2399999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
         <v>507</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="16">
         <v>2009</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -24321,8 +25266,12 @@
       <c r="AB29" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC29">
+        <f>(R29-Q29)/2</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>39</v>
       </c>
@@ -24407,8 +25356,12 @@
       <c r="AB30" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30">
+        <f>(R30-Q30)/2</f>
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1248</v>
       </c>
@@ -24452,10 +25405,10 @@
         <v>188</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q31" s="2">
         <v>11</v>
@@ -24493,8 +25446,12 @@
       <c r="AB31" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC31">
+        <f>(R31-Q31)/2</f>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -24538,10 +25495,10 @@
         <v>188</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="2">
         <v>6.5</v>
@@ -24579,15 +25536,19 @@
       <c r="AB32" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="AC32">
+        <f>(R32-Q32)/2</f>
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
         <v>52</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="16">
         <v>2005</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -24665,8 +25626,12 @@
       <c r="AB33" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC33">
+        <f>(R33-Q33)/2</f>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>807</v>
       </c>
@@ -24710,10 +25675,10 @@
         <v>188</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>29</v>
@@ -24751,8 +25716,11 @@
       <c r="AB34" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>807</v>
       </c>
@@ -24796,10 +25764,10 @@
         <v>188</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>29</v>
@@ -24837,8 +25805,11 @@
       <c r="AB35" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>447</v>
       </c>
@@ -24923,22 +25894,26 @@
       <c r="AB36" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC36">
+        <f>(R36-Q36)/2</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>3</v>
@@ -24949,35 +25924,35 @@
       <c r="H37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>29</v>
+      <c r="I37" s="2">
+        <v>6</v>
+      </c>
+      <c r="J37" s="2">
+        <v>21</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L37" s="2">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="M37" s="2">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>188</v>
       </c>
       <c r="O37" s="2">
-        <v>0.6</v>
+        <v>0.03</v>
       </c>
       <c r="P37" s="2">
-        <v>85.7</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="R37" s="2">
-        <v>153.1</v>
+        <v>14.8</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>29</v>
@@ -24986,45 +25961,48 @@
         <v>0</v>
       </c>
       <c r="U37" s="2">
-        <v>-91.5913410520902</v>
+        <v>-88.0558981249022</v>
       </c>
       <c r="V37" s="2">
-        <v>43.966224131317098</v>
+        <v>43.7140892217665</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="X37">
-        <v>47.656700100000002</v>
+        <v>36.192699400000002</v>
       </c>
       <c r="Y37">
-        <v>1151.2299805</v>
+        <v>1042.1300048999999</v>
       </c>
       <c r="Z37">
-        <v>7.2690001000000004</v>
+        <v>7.3861799000000001</v>
       </c>
       <c r="AA37">
-        <v>822.00799559999996</v>
+        <v>827.03601070000002</v>
       </c>
       <c r="AB37" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
@@ -25035,35 +26013,35 @@
       <c r="H38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="2">
-        <v>6</v>
-      </c>
-      <c r="J38" s="2">
-        <v>21</v>
+      <c r="I38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L38" s="2">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="M38" s="2">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>188</v>
       </c>
       <c r="O38" s="2">
-        <v>0.03</v>
+        <v>0.6</v>
       </c>
       <c r="P38" s="2">
-        <v>14.8</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>29</v>
+        <v>85.7</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="R38" s="2">
+        <v>153.1</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>29</v>
@@ -25072,38 +26050,42 @@
         <v>0</v>
       </c>
       <c r="U38" s="2">
-        <v>-88.0558981249022</v>
+        <v>-91.5913410520902</v>
       </c>
       <c r="V38" s="2">
-        <v>43.7140892217665</v>
+        <v>43.966224131317098</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="X38">
-        <v>36.192699400000002</v>
+        <v>47.656700100000002</v>
       </c>
       <c r="Y38">
-        <v>1042.1300048999999</v>
+        <v>1151.2299805</v>
       </c>
       <c r="Z38">
-        <v>7.3861799000000001</v>
+        <v>7.2690001000000004</v>
       </c>
       <c r="AA38">
-        <v>827.03601070000002</v>
+        <v>822.00799559999996</v>
       </c>
       <c r="AB38" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="AC38">
+        <f>(R38-Q38)/2</f>
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
         <v>250</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="16">
         <v>2005</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -25181,8 +26163,12 @@
       <c r="AB39" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC39">
+        <f>(R39-Q39)/2</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>807</v>
       </c>
@@ -25226,10 +26212,10 @@
         <v>188</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>29</v>
@@ -25267,8 +26253,11 @@
       <c r="AB40" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>1837</v>
       </c>
@@ -25353,8 +26342,11 @@
       <c r="AB41" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>814</v>
       </c>
@@ -25398,10 +26390,10 @@
         <v>188</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>29</v>
@@ -25439,8 +26431,11 @@
       <c r="AB42" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="43" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>1138</v>
       </c>
@@ -25484,10 +26479,10 @@
         <v>188</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>29</v>
@@ -25525,8 +26520,11 @@
       <c r="AB43" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="44" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>2530</v>
       </c>
@@ -25611,8 +26609,12 @@
       <c r="AB44" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="45" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC44">
+        <f>(R44-Q44)/2</f>
+        <v>23.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>1328</v>
       </c>
@@ -25656,10 +26658,10 @@
         <v>4</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>29</v>
@@ -25697,8 +26699,11 @@
       <c r="AB45" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="46" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>2530</v>
       </c>
@@ -25782,13 +26787,17 @@
       </c>
       <c r="AB46" t="s">
         <v>160</v>
+      </c>
+      <c r="AC46">
+        <f>(R46-Q46)/2</f>
+        <v>23.63</v>
       </c>
       <c r="AN46"/>
       <c r="AO46"/>
       <c r="AP46"/>
       <c r="AQ46"/>
     </row>
-    <row r="47" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>1328</v>
       </c>
@@ -25872,13 +26881,16 @@
       </c>
       <c r="AB47" t="s">
         <v>160</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>198</v>
       </c>
       <c r="AN47"/>
       <c r="AO47"/>
       <c r="AP47"/>
       <c r="AQ47"/>
     </row>
-    <row r="48" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>619</v>
       </c>
@@ -25962,6 +26974,10 @@
       </c>
       <c r="AB48" t="s">
         <v>160</v>
+      </c>
+      <c r="AC48">
+        <f>(R48-Q48)/2</f>
+        <v>73.25</v>
       </c>
       <c r="AN48"/>
       <c r="AO48"/>
@@ -25969,9 +26985,9 @@
       <c r="AQ48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB42" xr:uid="{DBB89D24-12F2-4895-BFBB-E513F5CF3A80}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB48">
-      <sortCondition ref="AB1:AB42"/>
+  <autoFilter ref="A1:AC48" xr:uid="{DBB89D24-12F2-4895-BFBB-E513F5CF3A80}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC48">
+      <sortCondition ref="AB1:AB48"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/raw/Data_all.xlsx
+++ b/data/raw/Data_all.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C47B73-3006-4CB1-8B9D-D81DE2AC875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7715B0AC-87AA-46B1-B1FF-82AF8BACD817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_all" sheetId="1" r:id="rId1"/>
@@ -9714,8 +9714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE2B149-B2A1-4AB3-A806-825BF9D726CF}">
   <dimension ref="A1:AF92"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection sqref="A1:Q90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9790,55 +9790,55 @@
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>148</v>
+        <v>630</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D2" s="2">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.91104335791442992</v>
+        <v>-0.25</v>
       </c>
       <c r="G2" s="2">
-        <v>-2.61796595556652</v>
+        <v>111.01176677880299</v>
       </c>
       <c r="H2" s="2">
-        <v>38.006546626199302</v>
+        <v>31.869357893441698</v>
       </c>
       <c r="I2">
-        <v>13.839531728199599</v>
+        <v>13.5155793091036</v>
       </c>
       <c r="J2">
-        <v>429.3125</v>
+        <v>1076.0283018867899</v>
       </c>
       <c r="K2">
-        <v>714.86292430332696</v>
+        <v>835.64572028394002</v>
       </c>
       <c r="L2">
-        <v>44.545724494116698</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>75</v>
+        <v>64.455044332540297</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.12</v>
       </c>
       <c r="N2" t="s">
         <v>75</v>
       </c>
       <c r="O2">
-        <v>37.650495640000003</v>
+        <v>65.82608089</v>
       </c>
       <c r="P2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="5"/>
@@ -9858,55 +9858,55 @@
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2038</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>2070</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
       </c>
       <c r="C3" s="2">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.9</v>
+        <v>0.06</v>
       </c>
       <c r="G3" s="2">
-        <v>8.6950014868463192</v>
+        <v>36.787484779217799</v>
       </c>
       <c r="H3" s="2">
-        <v>50.8130352580283</v>
+        <v>-3.3319054680446398</v>
       </c>
       <c r="I3">
-        <v>8.3393827915191707</v>
+        <v>20.548420678485499</v>
       </c>
       <c r="J3">
-        <v>875.28571428571399</v>
+        <v>730.02272727272702</v>
       </c>
       <c r="K3">
-        <v>626.44085562569796</v>
+        <v>159.72996815768201</v>
       </c>
       <c r="L3">
-        <v>13.976843908854899</v>
+        <v>89.728237585587905</v>
       </c>
       <c r="M3" s="2">
-        <v>84</v>
-      </c>
-      <c r="N3">
-        <v>47</v>
+        <v>0.2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
       </c>
       <c r="O3">
-        <v>39.669576900000003</v>
+        <v>38.605495779999998</v>
       </c>
       <c r="P3">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -9926,52 +9926,52 @@
     </row>
     <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>459</v>
+        <v>977</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="D4" s="2">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2">
-        <v>-0.84261497731763579</v>
+        <v>-0.3872983346207417</v>
       </c>
       <c r="G4" s="2">
-        <v>-84.832848281508703</v>
+        <v>110.66023696990899</v>
       </c>
       <c r="H4" s="2">
-        <v>32.388655699885803</v>
+        <v>33.7307320614158</v>
       </c>
       <c r="I4">
-        <v>17.545275292306599</v>
+        <v>12.7073659631941</v>
       </c>
       <c r="J4">
-        <v>1307.5660377358499</v>
+        <v>765.62037037036998</v>
       </c>
       <c r="K4">
-        <v>702.74318479142096</v>
+        <v>876.98536399558702</v>
       </c>
       <c r="L4">
-        <v>22.1234430097184</v>
+        <v>71.317376595956304</v>
       </c>
       <c r="M4" s="2">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>50</v>
+        <v>2.5</v>
       </c>
       <c r="O4">
-        <v>35.422285899999999</v>
+        <v>37.7948959</v>
       </c>
       <c r="P4">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Q4" t="s">
         <v>90</v>
@@ -9994,52 +9994,52 @@
     </row>
     <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>2038</v>
+        <v>806</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.82462112512353214</v>
+        <v>0.35</v>
       </c>
       <c r="G5" s="2">
-        <v>8.6950014868463192</v>
+        <v>8.1795455747425692</v>
       </c>
       <c r="H5" s="2">
-        <v>50.8130352580283</v>
+        <v>47.012130573961699</v>
       </c>
       <c r="I5">
-        <v>8.3393827915191707</v>
+        <v>6.0033337867847001</v>
       </c>
       <c r="J5">
-        <v>875.28571428571399</v>
+        <v>1268.07575757576</v>
       </c>
       <c r="K5">
-        <v>626.44085562569796</v>
+        <v>616.00336525656996</v>
       </c>
       <c r="L5">
-        <v>13.976843908854899</v>
+        <v>16.7133198832021</v>
       </c>
       <c r="M5" s="2">
-        <v>84</v>
+        <v>6.3</v>
       </c>
       <c r="N5">
-        <v>47</v>
+        <v>3.15</v>
       </c>
       <c r="O5">
-        <v>39.669576900000003</v>
+        <v>64.46289634</v>
       </c>
       <c r="P5">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q5" t="s">
         <v>90</v>
@@ -10062,55 +10062,55 @@
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>2659</v>
+        <v>270</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="D6" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="2">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>-90.928696219133698</v>
+        <v>173.80026069566901</v>
       </c>
       <c r="H6" s="2">
-        <v>38.763979618847699</v>
+        <v>-35.504117654961</v>
       </c>
       <c r="I6">
-        <v>12.359485651099201</v>
+        <v>14.905010337260199</v>
       </c>
       <c r="J6">
-        <v>985.35652173913002</v>
+        <v>1494.14925373134</v>
       </c>
       <c r="K6">
-        <v>973.94332912279197</v>
+        <v>288.10801970069099</v>
       </c>
       <c r="L6">
-        <v>23.1640884233558</v>
+        <v>22.4875832458041</v>
       </c>
       <c r="M6" s="2">
-        <v>55.5</v>
+        <v>7</v>
       </c>
       <c r="N6">
+        <v>3.5</v>
+      </c>
+      <c r="O6">
+        <v>182.04042480000001</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>23.673245560000002</v>
-      </c>
-      <c r="P6" s="2">
-        <v>61</v>
-      </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -10130,55 +10130,55 @@
     </row>
     <row r="7" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>698</v>
+        <v>270</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
-        <v>2013</v>
+        <v>1995</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>-0.79372539331937719</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>17.906820301265299</v>
+        <v>173.80026069566901</v>
       </c>
       <c r="H7" s="2">
-        <v>60.265557205279002</v>
+        <v>-35.504117654961</v>
       </c>
       <c r="I7">
-        <v>5.5844660558198598</v>
+        <v>14.905010337260199</v>
       </c>
       <c r="J7">
-        <v>594.27819548872196</v>
+        <v>1494.14925373134</v>
       </c>
       <c r="K7">
-        <v>739.44092668805797</v>
+        <v>288.10801970069099</v>
       </c>
       <c r="L7">
-        <v>29.133557929132198</v>
+        <v>22.4875832458041</v>
       </c>
       <c r="M7" s="2">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="N7">
-        <v>22.5</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
-        <v>75.111914530000007</v>
+        <v>182.04042480000001</v>
       </c>
       <c r="P7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -10198,55 +10198,55 @@
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>459</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+        <v>138</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="D8" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="2">
-        <v>-0.74833147735478833</v>
+        <v>-0.42</v>
       </c>
       <c r="G8" s="2">
-        <v>-84.832848281508703</v>
+        <v>-88.0558981249022</v>
       </c>
       <c r="H8" s="2">
-        <v>32.388655699885803</v>
+        <v>43.7140892217665</v>
       </c>
       <c r="I8">
-        <v>17.545275292306599</v>
+        <v>7.69015644478986</v>
       </c>
       <c r="J8">
-        <v>1307.5660377358499</v>
+        <v>807.71653543307104</v>
       </c>
       <c r="K8">
-        <v>702.74318479142096</v>
+        <v>1007.24332265779</v>
       </c>
       <c r="L8">
-        <v>22.1234430097184</v>
+        <v>34.577904678705202</v>
       </c>
       <c r="M8" s="2">
-        <v>100</v>
+        <v>14.770000000000001</v>
       </c>
       <c r="N8">
-        <v>50</v>
+        <v>7.415</v>
       </c>
       <c r="O8">
-        <v>35.422285899999999</v>
+        <v>20.760195960000001</v>
       </c>
       <c r="P8">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="5"/>
@@ -10266,52 +10266,52 @@
     </row>
     <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>2659</v>
+        <v>630</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D9" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="2">
-        <v>-0.69282032302755092</v>
+        <v>-0.33</v>
       </c>
       <c r="G9" s="2">
-        <v>-90.928696219133698</v>
+        <v>111.01176677880299</v>
       </c>
       <c r="H9" s="2">
-        <v>38.763979618847699</v>
+        <v>31.869357893441698</v>
       </c>
       <c r="I9">
-        <v>12.359485651099201</v>
+        <v>13.5155793091036</v>
       </c>
       <c r="J9">
-        <v>985.35652173913002</v>
+        <v>1076.0283018867899</v>
       </c>
       <c r="K9">
-        <v>973.94332912279197</v>
+        <v>835.64572028394002</v>
       </c>
       <c r="L9">
-        <v>23.1640884233558</v>
+        <v>64.455044332540297</v>
       </c>
       <c r="M9" s="2">
-        <v>55.5</v>
-      </c>
-      <c r="N9">
-        <v>28.35</v>
+        <v>16.2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
       </c>
       <c r="O9">
-        <v>23.673245560000002</v>
-      </c>
-      <c r="P9" s="2">
-        <v>61</v>
+        <v>65.82608089</v>
+      </c>
+      <c r="P9">
+        <v>54</v>
       </c>
       <c r="Q9" t="s">
         <v>90</v>
@@ -10334,55 +10334,55 @@
     </row>
     <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D10" s="2">
-        <v>49</v>
+        <v>685</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="2">
-        <v>-0.59</v>
+        <v>-0.45825756949558399</v>
       </c>
       <c r="G10" s="2">
-        <v>175.46437052024399</v>
+        <v>128.29878955445099</v>
       </c>
       <c r="H10" s="2">
-        <v>-37.741424101926903</v>
+        <v>36.622840663794101</v>
       </c>
       <c r="I10">
-        <v>13.267915000915499</v>
+        <v>10.720516547822101</v>
       </c>
       <c r="J10">
-        <v>1567.9</v>
+        <v>1240.7368421052599</v>
       </c>
       <c r="K10">
-        <v>352.33777618408197</v>
+        <v>978.47471270644905</v>
       </c>
       <c r="L10">
-        <v>16.670559816360502</v>
+        <v>81.555939389948307</v>
       </c>
       <c r="M10" s="2">
-        <v>52</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="N10" t="s">
         <v>75</v>
       </c>
       <c r="O10">
-        <v>119.6583885</v>
+        <v>72.386481500000002</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="Q10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -10402,55 +10402,55 @@
     </row>
     <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>339</v>
+        <v>806</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D11" s="2">
-        <v>685</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="2">
-        <v>-0.56568542494923801</v>
+        <v>0.33</v>
       </c>
       <c r="G11" s="2">
-        <v>128.29878955445099</v>
+        <v>8.1795455747425692</v>
       </c>
       <c r="H11" s="2">
-        <v>36.622840663794101</v>
+        <v>47.012130573961699</v>
       </c>
       <c r="I11">
-        <v>10.720516547822101</v>
+        <v>6.0033337867847001</v>
       </c>
       <c r="J11">
-        <v>1240.7368421052599</v>
+        <v>1268.07575757576</v>
       </c>
       <c r="K11">
-        <v>978.47471270644905</v>
+        <v>616.00336525656996</v>
       </c>
       <c r="L11">
-        <v>81.555939389948307</v>
+        <v>16.7133198832021</v>
       </c>
       <c r="M11" s="2">
-        <v>30.73</v>
-      </c>
-      <c r="N11" t="s">
-        <v>75</v>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N11">
+        <v>9.4499999999999993</v>
       </c>
       <c r="O11">
-        <v>72.386481500000002</v>
+        <v>64.46289634</v>
       </c>
       <c r="P11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -10469,53 +10469,53 @@
       <c r="AF11" s="4"/>
     </row>
     <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>209</v>
+      <c r="A12" s="2">
+        <v>977</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D12" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="2">
-        <v>-0.55000000000000004</v>
+        <v>-0.34641016151377546</v>
       </c>
       <c r="G12" s="2">
-        <v>119.559050101439</v>
+        <v>110.66023696990899</v>
       </c>
       <c r="H12" s="2">
-        <v>28.521895862550402</v>
+        <v>33.7307320614158</v>
       </c>
       <c r="I12">
-        <v>15.808659581854799</v>
+        <v>12.7073659631941</v>
       </c>
       <c r="J12">
-        <v>1642.91089108911</v>
+        <v>765.62037037036998</v>
       </c>
       <c r="K12">
-        <v>778.69467858040696</v>
+        <v>876.98536399558702</v>
       </c>
       <c r="L12">
-        <v>51.640638483632898</v>
+        <v>71.317376595956304</v>
       </c>
       <c r="M12" s="2">
-        <v>81.599999999999994</v>
+        <v>25</v>
       </c>
       <c r="N12">
-        <v>40.799999999999997</v>
+        <v>15.5</v>
       </c>
       <c r="O12">
-        <v>70.049675250000007</v>
+        <v>37.7948959</v>
       </c>
       <c r="P12">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
         <v>90</v>
@@ -10538,55 +10538,55 @@
     </row>
     <row r="13" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>523</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>977</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D13" s="2">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="2">
-        <v>-0.54772255750516607</v>
+        <v>-0.53851648071345037</v>
       </c>
       <c r="G13" s="2">
-        <v>-79.145331840485696</v>
+        <v>110.66023696990899</v>
       </c>
       <c r="H13" s="2">
-        <v>-4.1676366033547501</v>
+        <v>33.7307320614158</v>
       </c>
       <c r="I13">
-        <v>18.924195614728099</v>
+        <v>12.7073659631941</v>
       </c>
       <c r="J13">
-        <v>1154.7386363636399</v>
+        <v>765.62037037036998</v>
       </c>
       <c r="K13">
-        <v>30.579259926622601</v>
+        <v>876.98536399558702</v>
       </c>
       <c r="L13">
-        <v>54.171485814181203</v>
+        <v>71.317376595956304</v>
       </c>
       <c r="M13" s="2">
-        <v>88.9</v>
+        <v>25</v>
       </c>
       <c r="N13">
-        <v>49.05</v>
+        <v>15.5</v>
       </c>
       <c r="O13">
-        <v>42.093724020000003</v>
+        <v>37.7948959</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Q13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -10605,56 +10605,56 @@
       <c r="AF13" s="4"/>
     </row>
     <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>209</v>
+      <c r="A14" s="2">
+        <v>977</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D14" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="2">
-        <v>-0.49</v>
+        <v>-0.4898979485566356</v>
       </c>
       <c r="G14" s="2">
-        <v>119.559050101439</v>
+        <v>110.66023696990899</v>
       </c>
       <c r="H14" s="2">
-        <v>28.521895862550402</v>
+        <v>33.7307320614158</v>
       </c>
       <c r="I14">
-        <v>15.808659581854799</v>
+        <v>12.7073659631941</v>
       </c>
       <c r="J14">
-        <v>1642.91089108911</v>
+        <v>765.62037037036998</v>
       </c>
       <c r="K14">
-        <v>778.69467858040696</v>
+        <v>876.98536399558702</v>
       </c>
       <c r="L14">
-        <v>51.640638483632898</v>
+        <v>71.317376595956304</v>
       </c>
       <c r="M14" s="2">
-        <v>81.599999999999994</v>
+        <v>25</v>
       </c>
       <c r="N14">
-        <v>40.799999999999997</v>
+        <v>15.5</v>
       </c>
       <c r="O14">
-        <v>70.049675250000007</v>
+        <v>37.7948959</v>
       </c>
       <c r="P14">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -10674,55 +10674,55 @@
     </row>
     <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>862</v>
+        <v>396</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D15" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="2">
-        <v>-0.49</v>
+        <v>-0.79372539331937719</v>
       </c>
       <c r="G15" s="2">
-        <v>21.733037245825798</v>
+        <v>114.678576570749</v>
       </c>
       <c r="H15" s="2">
-        <v>38.446558873009501</v>
+        <v>23.494533125677901</v>
       </c>
       <c r="I15">
-        <v>13.9588510426608</v>
+        <v>20.865331689107101</v>
       </c>
       <c r="J15">
-        <v>788.09090909090901</v>
+        <v>1800.6804123711299</v>
       </c>
       <c r="K15">
-        <v>646.80097489790501</v>
+        <v>570.59883164867904</v>
       </c>
       <c r="L15">
-        <v>59.932598530162501</v>
+        <v>66.912939091318705</v>
       </c>
       <c r="M15" s="2">
-        <v>100</v>
+        <v>26.5</v>
       </c>
       <c r="N15">
-        <v>50</v>
+        <v>14.55</v>
       </c>
       <c r="O15">
-        <v>106.219368</v>
+        <v>90.793813689999993</v>
       </c>
       <c r="P15">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="5"/>
@@ -10742,52 +10742,52 @@
     </row>
     <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>2522</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>2070</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
       </c>
       <c r="C16" s="2">
         <v>2020</v>
       </c>
       <c r="D16" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="2">
-        <v>-0.49</v>
+        <v>-0.06</v>
       </c>
       <c r="G16" s="2">
-        <v>-42.820367399132898</v>
+        <v>36.787484779217799</v>
       </c>
       <c r="H16" s="2">
-        <v>-22.5522971109168</v>
+        <v>-3.3319054680446398</v>
       </c>
       <c r="I16">
-        <v>21.1700589157814</v>
+        <v>20.548420678485499</v>
       </c>
       <c r="J16">
-        <v>1337.91860465116</v>
+        <v>730.02272727272702</v>
       </c>
       <c r="K16">
-        <v>225.09452819824199</v>
+        <v>159.72996815768201</v>
       </c>
       <c r="L16">
-        <v>61.598029336263998</v>
+        <v>89.728237585587905</v>
       </c>
       <c r="M16" s="2">
-        <v>100</v>
-      </c>
-      <c r="N16">
-        <v>50</v>
+        <v>27.4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
       </c>
       <c r="O16">
-        <v>116.4454994</v>
-      </c>
-      <c r="P16" s="2">
-        <v>70</v>
+        <v>38.605495779999998</v>
+      </c>
+      <c r="P16">
+        <v>36</v>
       </c>
       <c r="Q16" t="s">
         <v>90</v>
@@ -10810,52 +10810,52 @@
     </row>
     <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>2659</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>2070</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="2">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D17" s="2">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="2">
-        <v>-0.46904157598234297</v>
+        <v>-0.24</v>
       </c>
       <c r="G17" s="2">
-        <v>-90.928696219133698</v>
+        <v>36.787484779217799</v>
       </c>
       <c r="H17" s="2">
-        <v>38.763979618847699</v>
+        <v>-3.3319054680446398</v>
       </c>
       <c r="I17">
-        <v>12.359485651099201</v>
+        <v>20.548420678485499</v>
       </c>
       <c r="J17">
-        <v>985.35652173913002</v>
+        <v>730.02272727272702</v>
       </c>
       <c r="K17">
-        <v>973.94332912279197</v>
+        <v>159.72996815768201</v>
       </c>
       <c r="L17">
-        <v>23.1640884233558</v>
+        <v>89.728237585587905</v>
       </c>
       <c r="M17" s="2">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="N17">
-        <v>19.649999999999999</v>
+        <v>28.7</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
       </c>
       <c r="O17">
-        <v>23.673245560000002</v>
-      </c>
-      <c r="P17" s="2">
-        <v>49</v>
+        <v>38.605495779999998</v>
+      </c>
+      <c r="P17">
+        <v>36</v>
       </c>
       <c r="Q17" t="s">
         <v>90</v>
@@ -10878,52 +10878,52 @@
     </row>
     <row r="18" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>977</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
+        <v>339</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C18" s="2">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="D18" s="2">
-        <v>67</v>
+        <v>685</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="2">
-        <v>-0.3872983346207417</v>
+        <v>-0.56568542494923801</v>
       </c>
       <c r="G18" s="2">
-        <v>110.66023696990899</v>
+        <v>128.29878955445099</v>
       </c>
       <c r="H18" s="2">
-        <v>33.7307320614158</v>
+        <v>36.622840663794101</v>
       </c>
       <c r="I18">
-        <v>12.7073659631941</v>
+        <v>10.720516547822101</v>
       </c>
       <c r="J18">
-        <v>765.62037037036998</v>
+        <v>1240.7368421052599</v>
       </c>
       <c r="K18">
-        <v>876.98536399558702</v>
+        <v>978.47471270644905</v>
       </c>
       <c r="L18">
-        <v>71.317376595956304</v>
+        <v>81.555939389948307</v>
       </c>
       <c r="M18" s="2">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>2.5</v>
+        <v>30.73</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
       </c>
       <c r="O18">
-        <v>37.7948959</v>
+        <v>72.386481500000002</v>
       </c>
       <c r="P18">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Q18" t="s">
         <v>90</v>
@@ -10946,52 +10946,52 @@
     </row>
     <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>977</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="D19" s="2">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="2">
-        <v>-0.34641016151377546</v>
+        <v>-0.2</v>
       </c>
       <c r="G19" s="2">
-        <v>110.66023696990899</v>
+        <v>-84.732938749394705</v>
       </c>
       <c r="H19" s="2">
-        <v>33.7307320614158</v>
+        <v>34.480135097528397</v>
       </c>
       <c r="I19">
-        <v>12.7073659631941</v>
+        <v>14.8106122546726</v>
       </c>
       <c r="J19">
-        <v>765.62037037036998</v>
+        <v>1453.3611111111099</v>
       </c>
       <c r="K19">
-        <v>876.98536399558702</v>
+        <v>758.870165224429</v>
       </c>
       <c r="L19">
-        <v>71.317376595956304</v>
+        <v>16.042336402116</v>
       </c>
       <c r="M19" s="2">
-        <v>25</v>
+        <v>31.9</v>
       </c>
       <c r="N19">
-        <v>15.5</v>
+        <v>22.45</v>
       </c>
       <c r="O19">
-        <v>37.7948959</v>
+        <v>43.012631489999997</v>
       </c>
       <c r="P19">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="Q19" t="s">
         <v>90</v>
@@ -11014,52 +11014,52 @@
     </row>
     <row r="20" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>698</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="D20" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="2">
-        <v>-0.33166247903553997</v>
+        <v>-0.1</v>
       </c>
       <c r="G20" s="2">
-        <v>17.906820301265299</v>
+        <v>-84.732938749394705</v>
       </c>
       <c r="H20" s="2">
-        <v>60.265557205279002</v>
+        <v>34.480135097528397</v>
       </c>
       <c r="I20">
-        <v>5.5844660558198598</v>
+        <v>14.8106122546726</v>
       </c>
       <c r="J20">
-        <v>594.27819548872196</v>
+        <v>1453.3611111111099</v>
       </c>
       <c r="K20">
-        <v>739.44092668805797</v>
+        <v>758.870165224429</v>
       </c>
       <c r="L20">
-        <v>29.133557929132198</v>
+        <v>16.042336402116</v>
       </c>
       <c r="M20" s="2">
-        <v>41</v>
+        <v>31.9</v>
       </c>
       <c r="N20">
-        <v>22.5</v>
+        <v>22.45</v>
       </c>
       <c r="O20">
-        <v>75.111914530000007</v>
+        <v>43.012631489999997</v>
       </c>
       <c r="P20">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="Q20" t="s">
         <v>90</v>
@@ -11082,52 +11082,52 @@
     </row>
     <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>630</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D21" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="2">
-        <v>-0.33</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>111.01176677880299</v>
+        <v>-84.471000856759503</v>
       </c>
       <c r="H21" s="2">
-        <v>31.869357893441698</v>
+        <v>34.1342531931151</v>
       </c>
       <c r="I21">
-        <v>13.5155793091036</v>
+        <v>15.3285187537517</v>
       </c>
       <c r="J21">
-        <v>1076.0283018867899</v>
+        <v>1406.4128440367001</v>
       </c>
       <c r="K21">
-        <v>835.64572028394002</v>
+        <v>747.78308497437604</v>
       </c>
       <c r="L21">
-        <v>64.455044332540297</v>
+        <v>16.162106041514502</v>
       </c>
       <c r="M21" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>75</v>
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>22</v>
       </c>
       <c r="O21">
-        <v>65.82608089</v>
+        <v>42.264608840000001</v>
       </c>
       <c r="P21">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q21" t="s">
         <v>90</v>
@@ -11150,52 +11150,52 @@
     </row>
     <row r="22" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>345</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="D22" s="2">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="2">
-        <v>-0.31622776601683794</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>-118.503523868972</v>
+        <v>-79.896049836862204</v>
       </c>
       <c r="H22" s="2">
-        <v>44.726643881350903</v>
+        <v>37.206796896565301</v>
       </c>
       <c r="I22">
-        <v>6.2817281162927996</v>
+        <v>12.334983148072901</v>
       </c>
       <c r="J22">
-        <v>449.60317460317498</v>
+        <v>1085.7456140350901</v>
       </c>
       <c r="K22">
-        <v>723.98910909985705</v>
+        <v>803.15567766156096</v>
       </c>
       <c r="L22">
-        <v>34.856877009073898</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" t="s">
-        <v>75</v>
+        <v>11.520784294396099</v>
+      </c>
+      <c r="M22" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="N22">
+        <v>24.45</v>
       </c>
       <c r="O22">
-        <v>24.37867778</v>
+        <v>51.766233970000002</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Q22" t="s">
         <v>90</v>
@@ -11218,55 +11218,55 @@
     </row>
     <row r="23" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>2659</v>
+        <v>676</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D23" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="2">
-        <v>-0.28284271247461901</v>
+        <v>0.33166247903553997</v>
       </c>
       <c r="G23" s="2">
-        <v>-90.928696219133698</v>
+        <v>-93.558973533021103</v>
       </c>
       <c r="H23" s="2">
-        <v>38.763979618847699</v>
+        <v>42.150110695346299</v>
       </c>
       <c r="I23">
-        <v>12.359485651099201</v>
+        <v>8.7186081153302197</v>
       </c>
       <c r="J23">
-        <v>985.35652173913002</v>
+        <v>852.86776859504096</v>
       </c>
       <c r="K23">
-        <v>973.94332912279197</v>
+        <v>1137.3452208968199</v>
       </c>
       <c r="L23">
-        <v>23.1640884233558</v>
+        <v>48.901012499470397</v>
       </c>
       <c r="M23" s="2">
-        <v>39.299999999999997</v>
+        <v>34</v>
       </c>
       <c r="N23">
-        <v>19.649999999999999</v>
+        <v>18</v>
       </c>
       <c r="O23">
-        <v>23.673245560000002</v>
-      </c>
-      <c r="P23" s="2">
-        <v>49</v>
+        <v>11.004437100000001</v>
+      </c>
+      <c r="P23">
+        <v>57</v>
       </c>
       <c r="Q23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -11286,55 +11286,55 @@
     </row>
     <row r="24" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
-        <v>1999</v>
+        <v>2011</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="2">
-        <v>-0.26457513110645908</v>
+        <v>-0.73484692283495345</v>
       </c>
       <c r="G24" s="2">
-        <v>-84.000486275174694</v>
+        <v>-78.862897530357202</v>
       </c>
       <c r="H24" s="2">
-        <v>41.8247708512381</v>
+        <v>35.916427727124997</v>
       </c>
       <c r="I24">
-        <v>9.1822594034260696</v>
+        <v>15.022346226514999</v>
       </c>
       <c r="J24">
-        <v>863.12068965517199</v>
+        <v>1154.2654867256599</v>
       </c>
       <c r="K24">
-        <v>994.98561885439096</v>
+        <v>788.25526036625399</v>
       </c>
       <c r="L24">
-        <v>22.6790241044143</v>
+        <v>13.827848704515301</v>
       </c>
       <c r="M24" s="2">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N24">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="O24">
-        <v>20.141881850000001</v>
+        <v>47.332587760000003</v>
       </c>
       <c r="P24">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="5"/>
@@ -11353,56 +11353,56 @@
       <c r="AF24" s="4"/>
     </row>
     <row r="25" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>359</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2005</v>
+      <c r="A25">
+        <v>1934</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25">
+        <v>2020</v>
       </c>
       <c r="D25" s="2">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="2">
-        <v>-0.26</v>
+        <v>0.74939975980780782</v>
       </c>
       <c r="G25" s="2">
-        <v>-123.547437536503</v>
+        <v>121.018056</v>
       </c>
       <c r="H25" s="2">
-        <v>44.208949507071402</v>
+        <v>14.228889000000001</v>
       </c>
       <c r="I25">
-        <v>10.579234178249701</v>
+        <v>26.346534637083501</v>
       </c>
       <c r="J25">
-        <v>1765.9615384615399</v>
+        <v>2308.4096385542198</v>
       </c>
       <c r="K25">
-        <v>474.74617004394503</v>
+        <v>105.345206478992</v>
       </c>
       <c r="L25">
-        <v>67.6569442015428</v>
+        <v>75.550407455628203</v>
       </c>
       <c r="M25" s="2">
-        <v>71</v>
-      </c>
-      <c r="N25">
-        <v>35.5</v>
+        <v>35.9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>75</v>
       </c>
       <c r="O25">
-        <v>103.32527469999999</v>
+        <v>178.5973951</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Q25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -11422,52 +11422,52 @@
     </row>
     <row r="26" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>2070</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
+        <v>1822</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C26" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D26" s="2">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="2">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>36.787484779217799</v>
+        <v>-88.9541362558098</v>
       </c>
       <c r="H26" s="2">
-        <v>-3.3319054680446398</v>
+        <v>30.975835650170399</v>
       </c>
       <c r="I26">
-        <v>20.548420678485499</v>
+        <v>18.840288602388799</v>
       </c>
       <c r="J26">
-        <v>730.02272727272702</v>
+        <v>1598.5480769230801</v>
       </c>
       <c r="K26">
-        <v>159.72996815768201</v>
+        <v>663.73756760817298</v>
       </c>
       <c r="L26">
-        <v>89.728237585587905</v>
+        <v>17.4871860192372</v>
       </c>
       <c r="M26" s="2">
-        <v>28.7</v>
-      </c>
-      <c r="N26" t="s">
-        <v>75</v>
+        <v>37.9</v>
+      </c>
+      <c r="N26">
+        <v>33.950000000000003</v>
       </c>
       <c r="O26">
-        <v>38.605495779999998</v>
+        <v>64.425485129999998</v>
       </c>
       <c r="P26">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q26" t="s">
         <v>90</v>
@@ -11490,55 +11490,55 @@
     </row>
     <row r="27" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>10</v>
+        <v>507</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="D27" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="2">
-        <v>-0.2</v>
+        <v>-0.64</v>
       </c>
       <c r="G27" s="2">
-        <v>-84.732938749394705</v>
+        <v>-84.845495468416104</v>
       </c>
       <c r="H27" s="2">
-        <v>34.480135097528397</v>
+        <v>32.599862138791998</v>
       </c>
       <c r="I27">
-        <v>14.8106122546726</v>
+        <v>17.281123656146899</v>
       </c>
       <c r="J27">
-        <v>1453.3611111111099</v>
+        <v>1312.5</v>
       </c>
       <c r="K27">
-        <v>758.870165224429</v>
+        <v>708.60098784824595</v>
       </c>
       <c r="L27">
-        <v>16.042336402116</v>
+        <v>21.6108913781508</v>
       </c>
       <c r="M27" s="2">
-        <v>31.9</v>
+        <v>39.199999999999996</v>
       </c>
       <c r="N27">
-        <v>22.45</v>
+        <v>20.8</v>
       </c>
       <c r="O27">
-        <v>43.012631489999997</v>
+        <v>34.569705229999997</v>
       </c>
       <c r="P27">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="5"/>
@@ -11558,52 +11558,52 @@
     </row>
     <row r="28" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>1815</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
+        <v>2659</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C28" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D28" s="2">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="2">
-        <v>-0.1414213562373095</v>
+        <v>-0.46904157598234297</v>
       </c>
       <c r="G28" s="2">
-        <v>108.935981718403</v>
+        <v>-90.928696219133698</v>
       </c>
       <c r="H28" s="2">
-        <v>34.023800959842099</v>
-      </c>
-      <c r="I28" s="2">
-        <v>10.9998182720608</v>
-      </c>
-      <c r="J28" s="2">
-        <v>712.12962962963002</v>
-      </c>
-      <c r="K28" s="2">
-        <v>871.33503214518203</v>
-      </c>
-      <c r="L28" s="2">
-        <v>71.413292213722499</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O28" s="2">
-        <v>51.949224659999999</v>
-      </c>
-      <c r="P28">
-        <v>63</v>
+        <v>38.763979618847699</v>
+      </c>
+      <c r="I28">
+        <v>12.359485651099201</v>
+      </c>
+      <c r="J28">
+        <v>985.35652173913002</v>
+      </c>
+      <c r="K28">
+        <v>973.94332912279197</v>
+      </c>
+      <c r="L28">
+        <v>23.1640884233558</v>
+      </c>
+      <c r="M28" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="N28">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="O28">
+        <v>23.673245560000002</v>
+      </c>
+      <c r="P28" s="2">
+        <v>49</v>
       </c>
       <c r="Q28" t="s">
         <v>90</v>
@@ -11626,52 +11626,52 @@
     </row>
     <row r="29" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>806</v>
+        <v>2659</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D29" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F29" s="2">
-        <v>-0.13</v>
+        <v>-0.28284271247461901</v>
       </c>
       <c r="G29" s="2">
-        <v>8.1795455747425692</v>
+        <v>-90.928696219133698</v>
       </c>
       <c r="H29" s="2">
-        <v>47.012130573961699</v>
+        <v>38.763979618847699</v>
       </c>
       <c r="I29">
-        <v>6.0033337867847001</v>
+        <v>12.359485651099201</v>
       </c>
       <c r="J29">
-        <v>1268.07575757576</v>
+        <v>985.35652173913002</v>
       </c>
       <c r="K29">
-        <v>616.00336525656996</v>
+        <v>973.94332912279197</v>
       </c>
       <c r="L29">
-        <v>16.7133198832021</v>
+        <v>23.1640884233558</v>
       </c>
       <c r="M29" s="2">
-        <v>60.7</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="N29">
-        <v>47.35</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="O29">
-        <v>64.46289634</v>
-      </c>
-      <c r="P29">
-        <v>61</v>
+        <v>23.673245560000002</v>
+      </c>
+      <c r="P29" s="2">
+        <v>49</v>
       </c>
       <c r="Q29" t="s">
         <v>90</v>
@@ -11694,55 +11694,55 @@
     </row>
     <row r="30" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2">
         <v>2003</v>
       </c>
       <c r="D30" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="2">
-        <v>-0.1</v>
+        <v>-0.65</v>
       </c>
       <c r="G30" s="2">
-        <v>-84.732938749394705</v>
+        <v>-149.78569926630999</v>
       </c>
       <c r="H30" s="2">
-        <v>34.480135097528397</v>
+        <v>61.222831358093202</v>
       </c>
       <c r="I30">
-        <v>14.8106122546726</v>
+        <v>0.58786689919298096</v>
       </c>
       <c r="J30">
-        <v>1453.3611111111099</v>
+        <v>744.695652173913</v>
       </c>
       <c r="K30">
-        <v>758.870165224429</v>
+        <v>820.95562147057603</v>
       </c>
       <c r="L30">
-        <v>16.042336402116</v>
+        <v>41.753649359164001</v>
       </c>
       <c r="M30" s="2">
-        <v>31.9</v>
+        <v>39.9</v>
       </c>
       <c r="N30">
-        <v>22.45</v>
-      </c>
-      <c r="O30">
-        <v>43.012631489999997</v>
+        <v>19.95</v>
+      </c>
+      <c r="O30" t="s">
+        <v>75</v>
       </c>
       <c r="P30">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -11762,55 +11762,55 @@
     </row>
     <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>2070</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
+        <v>806</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="2">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D31" s="2">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="2">
-        <v>-0.06</v>
+        <v>0.27</v>
       </c>
       <c r="G31" s="2">
-        <v>36.787484779217799</v>
+        <v>8.1795455747425692</v>
       </c>
       <c r="H31" s="2">
-        <v>-3.3319054680446398</v>
+        <v>47.012130573961699</v>
       </c>
       <c r="I31">
-        <v>20.548420678485499</v>
+        <v>6.0033337867847001</v>
       </c>
       <c r="J31">
-        <v>730.02272727272702</v>
+        <v>1268.07575757576</v>
       </c>
       <c r="K31">
-        <v>159.72996815768201</v>
+        <v>616.00336525656996</v>
       </c>
       <c r="L31">
-        <v>89.728237585587905</v>
+        <v>16.7133198832021</v>
       </c>
       <c r="M31" s="2">
-        <v>27.4</v>
-      </c>
-      <c r="N31" t="s">
-        <v>75</v>
+        <v>40.400000000000006</v>
+      </c>
+      <c r="N31">
+        <v>62.5</v>
       </c>
       <c r="O31">
-        <v>38.605495779999998</v>
+        <v>64.46289634</v>
       </c>
       <c r="P31">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="Q31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -11829,52 +11829,52 @@
     </row>
     <row r="32" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>359</v>
+        <v>698</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="D32" s="2">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="2">
-        <v>-0.03</v>
+        <v>-0.79372539331937719</v>
       </c>
       <c r="G32" s="2">
-        <v>-123.547437536503</v>
+        <v>17.906820301265299</v>
       </c>
       <c r="H32" s="2">
-        <v>44.208949507071402</v>
+        <v>60.265557205279002</v>
       </c>
       <c r="I32">
-        <v>10.579234178249701</v>
+        <v>5.5844660558198598</v>
       </c>
       <c r="J32">
-        <v>1765.9615384615399</v>
+        <v>594.27819548872196</v>
       </c>
       <c r="K32">
-        <v>474.74617004394503</v>
+        <v>739.44092668805797</v>
       </c>
       <c r="L32">
-        <v>67.6569442015428</v>
+        <v>29.133557929132198</v>
       </c>
       <c r="M32" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="N32">
-        <v>35.5</v>
+        <v>22.5</v>
       </c>
       <c r="O32">
-        <v>103.32527469999999</v>
+        <v>75.111914530000007</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="Q32" t="s">
         <v>90</v>
@@ -11896,52 +11896,52 @@
     </row>
     <row r="33" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>698</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="D33" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>-0.33166247903553997</v>
       </c>
       <c r="G33" s="2">
-        <v>-79.896049836862204</v>
+        <v>17.906820301265299</v>
       </c>
       <c r="H33" s="2">
-        <v>37.206796896565301</v>
+        <v>60.265557205279002</v>
       </c>
       <c r="I33">
-        <v>12.334983148072901</v>
+        <v>5.5844660558198598</v>
       </c>
       <c r="J33">
-        <v>1085.7456140350901</v>
+        <v>594.27819548872196</v>
       </c>
       <c r="K33">
-        <v>803.15567766156096</v>
+        <v>739.44092668805797</v>
       </c>
       <c r="L33">
-        <v>11.520784294396099</v>
+        <v>29.133557929132198</v>
       </c>
       <c r="M33" s="2">
-        <v>33.9</v>
+        <v>41</v>
       </c>
       <c r="N33">
-        <v>24.45</v>
+        <v>22.5</v>
       </c>
       <c r="O33">
-        <v>51.766233970000002</v>
+        <v>75.111914530000007</v>
       </c>
       <c r="P33">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q33" t="s">
         <v>90</v>
@@ -11962,53 +11962,53 @@
       <c r="AE33"/>
     </row>
     <row r="34" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>23</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2005</v>
+      <c r="A34">
+        <v>1493</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34">
+        <v>2008</v>
       </c>
       <c r="D34" s="2">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <v>-76.923828116832297</v>
-      </c>
-      <c r="H34" s="5">
-        <v>38.731161289875402</v>
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-84.678111499384897</v>
+      </c>
+      <c r="H34" s="2">
+        <v>33.200195604627197</v>
       </c>
       <c r="I34">
-        <v>13.0908403977104</v>
+        <v>16.5600778098418</v>
       </c>
       <c r="J34">
-        <v>1074.95652173913</v>
+        <v>1324.34579439252</v>
       </c>
       <c r="K34">
-        <v>862.54229205587603</v>
+        <v>725.99157828928196</v>
       </c>
       <c r="L34">
-        <v>11.331408251886799</v>
+        <v>19.5092819249519</v>
       </c>
       <c r="M34" s="2">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N34">
-        <v>30</v>
+        <v>21.1</v>
       </c>
       <c r="O34">
-        <v>102.81242450000001</v>
+        <v>26.8387612</v>
       </c>
       <c r="P34">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q34" t="s">
         <v>90</v>
@@ -12030,52 +12030,52 @@
     </row>
     <row r="35" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>48</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
+        <v>157</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C35" s="2">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D35" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>-60.149543343533402</v>
-      </c>
-      <c r="H35" s="2">
-        <v>-1.97433119130239</v>
+        <v>0.39</v>
+      </c>
+      <c r="G35" s="5">
+        <v>-88.178159313511102</v>
+      </c>
+      <c r="H35" s="5">
+        <v>43.1527981750775</v>
       </c>
       <c r="I35">
-        <v>26.505502486496798</v>
+        <v>8.0403160654808907</v>
       </c>
       <c r="J35">
-        <v>2401.23595505618</v>
+        <v>838.93388429752099</v>
       </c>
       <c r="K35">
-        <v>44.196177236149801</v>
+        <v>1009.46629497434</v>
       </c>
       <c r="L35">
-        <v>38.298077186841702</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N35" t="s">
-        <v>75</v>
+        <v>34.373382883623599</v>
+      </c>
+      <c r="M35" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="N35">
+        <v>24.25</v>
       </c>
       <c r="O35">
-        <v>43.703481969999999</v>
+        <v>20.963304050000001</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q35" t="s">
         <v>90</v>
@@ -12097,52 +12097,52 @@
     </row>
     <row r="36" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
+        <v>157</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C36" s="2">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D36" s="2">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>-60.149543343533402</v>
-      </c>
-      <c r="H36" s="2">
-        <v>-1.97433119130239</v>
-      </c>
-      <c r="I36" s="2">
-        <v>26.505502486496798</v>
-      </c>
-      <c r="J36" s="2">
-        <v>2401.23595505618</v>
-      </c>
-      <c r="K36" s="2">
-        <v>44.196177236149801</v>
-      </c>
-      <c r="L36" s="2">
-        <v>38.298077186841702</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O36" s="2">
-        <v>43.703481969999999</v>
+        <v>0.42</v>
+      </c>
+      <c r="G36" s="5">
+        <v>-88.178159313511102</v>
+      </c>
+      <c r="H36" s="5">
+        <v>43.1527981750775</v>
+      </c>
+      <c r="I36">
+        <v>8.0403160654808907</v>
+      </c>
+      <c r="J36">
+        <v>838.93388429752099</v>
+      </c>
+      <c r="K36">
+        <v>1009.46629497434</v>
+      </c>
+      <c r="L36">
+        <v>34.373382883623599</v>
+      </c>
+      <c r="M36" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="N36">
+        <v>24.25</v>
+      </c>
+      <c r="O36">
+        <v>20.963304050000001</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q36" t="s">
         <v>90</v>
@@ -12164,55 +12164,55 @@
     </row>
     <row r="37" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>181</v>
+        <v>676</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="D37" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
+        <v>-0.31622776601683794</v>
       </c>
       <c r="G37" s="2">
-        <v>-84.471000856759503</v>
+        <v>-93.558973533021103</v>
       </c>
       <c r="H37" s="2">
-        <v>34.1342531931151</v>
+        <v>42.150110695346299</v>
       </c>
       <c r="I37">
-        <v>15.3285187537517</v>
+        <v>8.7186081153302197</v>
       </c>
       <c r="J37">
-        <v>1406.4128440367001</v>
+        <v>852.86776859504096</v>
       </c>
       <c r="K37">
-        <v>747.78308497437604</v>
+        <v>1137.3452208968199</v>
       </c>
       <c r="L37">
-        <v>16.162106041514502</v>
+        <v>48.901012499470397</v>
       </c>
       <c r="M37" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N37">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="O37">
-        <v>42.264608840000001</v>
+        <v>11.004437100000001</v>
       </c>
       <c r="P37">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="5"/>
@@ -12231,52 +12231,52 @@
     </row>
     <row r="38" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>1621</v>
+        <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="D38" s="2">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>-0.26457513110645908</v>
       </c>
       <c r="G38" s="2">
-        <v>-88.926043252578197</v>
+        <v>-84.000486275174694</v>
       </c>
       <c r="H38" s="2">
-        <v>41.8597629640675</v>
+        <v>41.8247708512381</v>
       </c>
       <c r="I38">
-        <v>9.0990066606490299</v>
+        <v>9.1822594034260696</v>
       </c>
       <c r="J38">
-        <v>918.08196721311504</v>
+        <v>863.12068965517199</v>
       </c>
       <c r="K38">
-        <v>1066.8512878418001</v>
+        <v>994.98561885439096</v>
       </c>
       <c r="L38">
-        <v>33.8313197151559</v>
+        <v>22.6790241044143</v>
       </c>
       <c r="M38" s="2">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="N38">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="O38">
-        <v>15.39221897</v>
+        <v>20.141881850000001</v>
       </c>
       <c r="P38">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q38" t="s">
         <v>90</v>
@@ -12298,55 +12298,55 @@
     </row>
     <row r="39" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>1621</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="D39" s="2">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>-0.69</v>
       </c>
       <c r="G39" s="2">
-        <v>-88.926043252578197</v>
+        <v>145.36591909379999</v>
       </c>
       <c r="H39" s="2">
-        <v>41.8597629640675</v>
+        <v>-37.806686188268102</v>
       </c>
       <c r="I39">
-        <v>9.0990066606490299</v>
+        <v>13.1781247714618</v>
       </c>
       <c r="J39">
-        <v>918.08196721311504</v>
+        <v>944.05405405405395</v>
       </c>
       <c r="K39">
-        <v>1066.8512878418001</v>
+        <v>403.10476986996798</v>
       </c>
       <c r="L39">
-        <v>33.8313197151559</v>
+        <v>22.2164987014221</v>
       </c>
       <c r="M39" s="2">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="N39">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="O39">
-        <v>15.39221897</v>
+        <v>101.4257988</v>
       </c>
       <c r="P39">
         <v>51</v>
       </c>
       <c r="Q39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="5"/>
@@ -12365,55 +12365,55 @@
     </row>
     <row r="40" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>1622</v>
+        <v>130</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="D40" s="2">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="2">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
       <c r="G40" s="2">
-        <v>129.092336812658</v>
+        <v>145.36591909379999</v>
       </c>
       <c r="H40" s="2">
-        <v>35.3417571425638</v>
+        <v>-37.806686188268102</v>
       </c>
       <c r="I40">
-        <v>12.9117699759347</v>
+        <v>13.1781247714618</v>
       </c>
       <c r="J40">
-        <v>1324.3571428571399</v>
+        <v>944.05405405405395</v>
       </c>
       <c r="K40">
-        <v>867.33749999999998</v>
+        <v>403.10476986996798</v>
       </c>
       <c r="L40">
-        <v>73.457922690255302</v>
+        <v>22.2164987014221</v>
       </c>
       <c r="M40" s="2">
-        <v>66.3</v>
+        <v>50</v>
       </c>
       <c r="N40">
-        <v>33.15</v>
+        <v>25</v>
       </c>
       <c r="O40">
-        <v>159.38215460000001</v>
+        <v>101.4257988</v>
       </c>
       <c r="P40">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="Q40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="5"/>
@@ -12432,52 +12432,52 @@
     </row>
     <row r="41" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>1822</v>
+        <v>292</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="D41" s="2">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F41" s="2">
+        <v>-0.59</v>
+      </c>
+      <c r="G41" s="2">
+        <v>175.46437052024399</v>
+      </c>
+      <c r="H41" s="2">
+        <v>-37.741424101926903</v>
+      </c>
+      <c r="I41">
+        <v>13.267915000915499</v>
+      </c>
+      <c r="J41">
+        <v>1567.9</v>
+      </c>
+      <c r="K41">
+        <v>352.33777618408197</v>
+      </c>
+      <c r="L41">
+        <v>16.670559816360502</v>
+      </c>
+      <c r="M41" s="2">
+        <v>52</v>
+      </c>
+      <c r="N41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O41">
+        <v>119.6583885</v>
+      </c>
+      <c r="P41">
         <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>-88.9541362558098</v>
-      </c>
-      <c r="H41" s="2">
-        <v>30.975835650170399</v>
-      </c>
-      <c r="I41">
-        <v>18.840288602388799</v>
-      </c>
-      <c r="J41">
-        <v>1598.5480769230801</v>
-      </c>
-      <c r="K41">
-        <v>663.73756760817298</v>
-      </c>
-      <c r="L41">
-        <v>17.4871860192372</v>
-      </c>
-      <c r="M41" s="2">
-        <v>37.9</v>
-      </c>
-      <c r="N41">
-        <v>33.950000000000003</v>
-      </c>
-      <c r="O41">
-        <v>64.425485129999998</v>
-      </c>
-      <c r="P41">
-        <v>59</v>
       </c>
       <c r="Q41" t="s">
         <v>90</v>
@@ -12499,52 +12499,52 @@
     </row>
     <row r="42" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>1138</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
+        <v>2659</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C42" s="2">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="D42" s="2">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="2">
-        <v>0.09</v>
+        <v>-0.8</v>
       </c>
       <c r="G42" s="2">
-        <v>-73.815635430313705</v>
+        <v>-90.928696219133698</v>
       </c>
       <c r="H42" s="2">
-        <v>41.543897058267198</v>
-      </c>
-      <c r="I42" s="2">
-        <v>9.1912837698439898</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1184.9338842975201</v>
-      </c>
-      <c r="K42" s="2">
-        <v>929.77901641593496</v>
-      </c>
-      <c r="L42" s="2">
-        <v>10.2035719540494</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O42" s="2">
-        <v>87.787766989999994</v>
-      </c>
-      <c r="P42">
-        <v>51</v>
+        <v>38.763979618847699</v>
+      </c>
+      <c r="I42">
+        <v>12.359485651099201</v>
+      </c>
+      <c r="J42">
+        <v>985.35652173913002</v>
+      </c>
+      <c r="K42">
+        <v>973.94332912279197</v>
+      </c>
+      <c r="L42">
+        <v>23.1640884233558</v>
+      </c>
+      <c r="M42" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>23.673245560000002</v>
+      </c>
+      <c r="P42" s="2">
+        <v>61</v>
       </c>
       <c r="Q42" t="s">
         <v>90</v>
@@ -12566,52 +12566,52 @@
     </row>
     <row r="43" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>2295</v>
+        <v>2659</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2015</v>
       </c>
       <c r="D43" s="2">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F43" s="2">
-        <v>0.21447610589527216</v>
+        <v>-0.69282032302755092</v>
       </c>
       <c r="G43" s="2">
-        <v>124.66807985024499</v>
+        <v>-90.928696219133698</v>
       </c>
       <c r="H43" s="2">
-        <v>41.563813242725999</v>
-      </c>
-      <c r="I43" s="2">
-        <v>5.8894058446730302</v>
-      </c>
-      <c r="J43" s="2">
-        <v>853.80645161290295</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1290.3346547772801</v>
-      </c>
-      <c r="L43" s="2">
-        <v>101.92718856565401</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O43" s="2">
-        <v>47.284639409999997</v>
+        <v>38.763979618847699</v>
+      </c>
+      <c r="I43">
+        <v>12.359485651099201</v>
+      </c>
+      <c r="J43">
+        <v>985.35652173913002</v>
+      </c>
+      <c r="K43">
+        <v>973.94332912279197</v>
+      </c>
+      <c r="L43">
+        <v>23.1640884233558</v>
+      </c>
+      <c r="M43" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="N43">
+        <v>28.35</v>
+      </c>
+      <c r="O43">
+        <v>23.673245560000002</v>
       </c>
       <c r="P43" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q43" t="s">
         <v>90</v>
@@ -12633,55 +12633,55 @@
     </row>
     <row r="44" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>806</v>
+        <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="D44" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="2">
-        <v>0.35</v>
+        <v>-0.55677643628300222</v>
       </c>
       <c r="G44" s="2">
-        <v>8.1795455747425692</v>
+        <v>-84.732938749394705</v>
       </c>
       <c r="H44" s="2">
-        <v>47.012130573961699</v>
+        <v>34.480135097528397</v>
       </c>
       <c r="I44">
-        <v>6.0033337867847001</v>
+        <v>14.8106122546726</v>
       </c>
       <c r="J44">
-        <v>1268.07575757576</v>
+        <v>1453.3611111111099</v>
       </c>
       <c r="K44">
-        <v>616.00336525656996</v>
+        <v>758.870165224429</v>
       </c>
       <c r="L44">
-        <v>16.7133198832021</v>
+        <v>16.042336402116</v>
       </c>
       <c r="M44" s="2">
-        <v>6.3</v>
+        <v>55.800000000000004</v>
       </c>
       <c r="N44">
-        <v>3.15</v>
+        <v>32.800000000000004</v>
       </c>
       <c r="O44">
-        <v>64.46289634</v>
+        <v>43.012631489999997</v>
       </c>
       <c r="P44">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="Q44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="5"/>
@@ -12700,55 +12700,55 @@
     </row>
     <row r="45" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C45" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D45" s="2">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F45" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="G45" s="5">
-        <v>-88.178159313511102</v>
-      </c>
-      <c r="H45" s="5">
-        <v>43.1527981750775</v>
+        <v>-0.53851648071345037</v>
+      </c>
+      <c r="G45" s="2">
+        <v>-84.732938749394705</v>
+      </c>
+      <c r="H45" s="2">
+        <v>34.480135097528397</v>
       </c>
       <c r="I45">
-        <v>8.0403160654808907</v>
+        <v>14.8106122546726</v>
       </c>
       <c r="J45">
-        <v>838.93388429752099</v>
+        <v>1453.3611111111099</v>
       </c>
       <c r="K45">
-        <v>1009.46629497434</v>
+        <v>758.870165224429</v>
       </c>
       <c r="L45">
-        <v>34.373382883623599</v>
+        <v>16.042336402116</v>
       </c>
       <c r="M45" s="2">
-        <v>44.7</v>
+        <v>55.800000000000004</v>
       </c>
       <c r="N45">
-        <v>24.25</v>
+        <v>32.800000000000004</v>
       </c>
       <c r="O45">
-        <v>20.963304050000001</v>
+        <v>43.012631489999997</v>
       </c>
       <c r="P45">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -12767,55 +12767,55 @@
     </row>
     <row r="46" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>157</v>
+        <v>847</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="D46" s="2">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="G46" s="5">
-        <v>-88.178159313511102</v>
-      </c>
-      <c r="H46" s="5">
-        <v>43.1527981750775</v>
+        <v>-0.63245553203367588</v>
+      </c>
+      <c r="G46" s="2">
+        <v>175.255210413573</v>
+      </c>
+      <c r="H46" s="2">
+        <v>-37.777371813615403</v>
       </c>
       <c r="I46">
-        <v>8.0403160654808907</v>
+        <v>13.297548045282801</v>
       </c>
       <c r="J46">
-        <v>838.93388429752099</v>
+        <v>1564.3260869565199</v>
       </c>
       <c r="K46">
-        <v>1009.46629497434</v>
+        <v>350.87715878694002</v>
       </c>
       <c r="L46">
-        <v>34.373382883623599</v>
+        <v>16.802117275155101</v>
       </c>
       <c r="M46" s="2">
-        <v>44.7</v>
+        <v>58</v>
       </c>
       <c r="N46">
-        <v>24.25</v>
+        <v>35</v>
       </c>
       <c r="O46">
-        <v>20.963304050000001</v>
+        <v>124.8882868</v>
       </c>
       <c r="P46">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="5"/>
@@ -12833,56 +12833,56 @@
       <c r="AE46"/>
     </row>
     <row r="47" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>1493</v>
-      </c>
-      <c r="B47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47">
-        <v>2008</v>
+      <c r="A47" s="2">
+        <v>847</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2011</v>
       </c>
       <c r="D47" s="2">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F47" s="2">
-        <v>0.42799999999999999</v>
+        <v>-0.31622776601683794</v>
       </c>
       <c r="G47" s="2">
-        <v>-84.678111499384897</v>
+        <v>175.255210413573</v>
       </c>
       <c r="H47" s="2">
-        <v>33.200195604627197</v>
+        <v>-37.777371813615403</v>
       </c>
       <c r="I47">
-        <v>16.5600778098418</v>
+        <v>13.297548045282801</v>
       </c>
       <c r="J47">
-        <v>1324.34579439252</v>
+        <v>1564.3260869565199</v>
       </c>
       <c r="K47">
-        <v>725.99157828928196</v>
+        <v>350.87715878694002</v>
       </c>
       <c r="L47">
-        <v>19.5092819249519</v>
+        <v>16.802117275155101</v>
       </c>
       <c r="M47" s="2">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N47">
-        <v>21.1</v>
+        <v>35</v>
       </c>
       <c r="O47">
-        <v>26.8387612</v>
+        <v>124.8882868</v>
       </c>
       <c r="P47">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -12900,56 +12900,56 @@
       <c r="AE47"/>
     </row>
     <row r="48" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>209</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
+      <c r="A48" s="2">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C48" s="2">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="D48" s="2">
+        <v>29</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>-76.923828116832297</v>
+      </c>
+      <c r="H48" s="5">
+        <v>38.731161289875402</v>
+      </c>
+      <c r="I48">
+        <v>13.0908403977104</v>
+      </c>
+      <c r="J48">
+        <v>1074.95652173913</v>
+      </c>
+      <c r="K48">
+        <v>862.54229205587603</v>
+      </c>
+      <c r="L48">
+        <v>11.331408251886799</v>
+      </c>
+      <c r="M48" s="2">
         <v>60</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="2">
-        <v>-0.87</v>
-      </c>
-      <c r="G48" s="2">
-        <v>119.559050101439</v>
-      </c>
-      <c r="H48" s="2">
-        <v>28.521895862550402</v>
-      </c>
-      <c r="I48">
-        <v>15.808659581854799</v>
-      </c>
-      <c r="J48">
-        <v>1642.91089108911</v>
-      </c>
-      <c r="K48">
-        <v>778.69467858040696</v>
-      </c>
-      <c r="L48">
-        <v>51.640638483632898</v>
-      </c>
-      <c r="M48" s="2">
-        <v>87</v>
-      </c>
       <c r="N48">
-        <v>43.5</v>
+        <v>30</v>
       </c>
       <c r="O48">
-        <v>70.049675250000007</v>
+        <v>102.81242450000001</v>
       </c>
       <c r="P48">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Q48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -12969,55 +12969,55 @@
     </row>
     <row r="49" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>23</v>
+        <v>781</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="D49" s="2">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F49" s="2">
-        <v>-0.82462112512353214</v>
-      </c>
-      <c r="G49" s="5">
-        <v>-76.923828116832297</v>
-      </c>
-      <c r="H49" s="5">
-        <v>38.731161289875402</v>
+        <v>-0.1414213562373095</v>
+      </c>
+      <c r="G49" s="2">
+        <v>-97.6486057905867</v>
+      </c>
+      <c r="H49" s="2">
+        <v>30.2350475589949</v>
       </c>
       <c r="I49">
-        <v>13.0908403977104</v>
+        <v>19.4802855173747</v>
       </c>
       <c r="J49">
-        <v>1074.95652173913</v>
+        <v>869.09523809523796</v>
       </c>
       <c r="K49">
-        <v>862.54229205587603</v>
+        <v>710.55064348493295</v>
       </c>
       <c r="L49">
-        <v>11.331408251886799</v>
+        <v>32.762220873151499</v>
       </c>
       <c r="M49" s="2">
-        <v>77</v>
+        <v>60.6</v>
       </c>
       <c r="N49">
-        <v>38.5</v>
+        <v>30.3</v>
       </c>
       <c r="O49">
-        <v>102.81242450000001</v>
+        <v>49.070831239999997</v>
       </c>
       <c r="P49">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -13036,56 +13036,56 @@
       <c r="AF49" s="4"/>
     </row>
     <row r="50" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>209</v>
-      </c>
-      <c r="B50" t="s">
-        <v>44</v>
+      <c r="A50" s="2">
+        <v>781</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C50" s="2">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D50" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F50" s="2">
-        <v>-0.82</v>
+        <v>-0.1</v>
       </c>
       <c r="G50" s="2">
-        <v>119.559050101439</v>
+        <v>-97.6486057905867</v>
       </c>
       <c r="H50" s="2">
-        <v>28.521895862550402</v>
+        <v>30.2350475589949</v>
       </c>
       <c r="I50">
-        <v>15.808659581854799</v>
+        <v>19.4802855173747</v>
       </c>
       <c r="J50">
-        <v>1642.91089108911</v>
+        <v>869.09523809523796</v>
       </c>
       <c r="K50">
-        <v>778.69467858040696</v>
+        <v>710.55064348493295</v>
       </c>
       <c r="L50">
-        <v>51.640638483632898</v>
+        <v>32.762220873151499</v>
       </c>
       <c r="M50" s="2">
-        <v>87</v>
+        <v>60.6</v>
       </c>
       <c r="N50">
-        <v>43.5</v>
+        <v>30.3</v>
       </c>
       <c r="O50">
-        <v>70.049675250000007</v>
+        <v>49.070831239999997</v>
       </c>
       <c r="P50">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -13105,55 +13105,55 @@
     </row>
     <row r="51" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>725</v>
+        <v>806</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D51" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F51" s="2">
-        <v>-0.81853527718724506</v>
+        <v>-0.13</v>
       </c>
       <c r="G51" s="2">
-        <v>174.93784492076</v>
+        <v>8.1795455747425692</v>
       </c>
       <c r="H51" s="2">
-        <v>-36.978974591161197</v>
+        <v>47.012130573961699</v>
       </c>
       <c r="I51">
-        <v>14.3452296478804</v>
+        <v>6.0033337867847001</v>
       </c>
       <c r="J51">
-        <v>1500.36046511628</v>
+        <v>1268.07575757576</v>
       </c>
       <c r="K51">
-        <v>324.09162973803097</v>
+        <v>616.00336525656996</v>
       </c>
       <c r="L51">
-        <v>19.024206826853199</v>
+        <v>16.7133198832021</v>
       </c>
       <c r="M51" s="2">
-        <v>100</v>
+        <v>60.7</v>
       </c>
       <c r="N51">
-        <v>50</v>
+        <v>47.35</v>
       </c>
       <c r="O51">
-        <v>198.9998247</v>
+        <v>64.46289634</v>
       </c>
       <c r="P51">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="Q51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -13172,53 +13172,53 @@
       <c r="AF51" s="4"/>
     </row>
     <row r="52" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>396</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="2">
-        <v>2010</v>
+      <c r="A52">
+        <v>1493</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52">
+        <v>2008</v>
       </c>
       <c r="D52" s="2">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F52" s="2">
-        <v>-0.79372539331937719</v>
+        <v>-0.39</v>
       </c>
       <c r="G52" s="2">
-        <v>114.678576570749</v>
+        <v>-84.678111499384897</v>
       </c>
       <c r="H52" s="2">
-        <v>23.494533125677901</v>
+        <v>33.200195604627197</v>
       </c>
       <c r="I52">
-        <v>20.865331689107101</v>
+        <v>16.5600778098418</v>
       </c>
       <c r="J52">
-        <v>1800.6804123711299</v>
+        <v>1324.34579439252</v>
       </c>
       <c r="K52">
-        <v>570.59883164867904</v>
+        <v>725.99157828928196</v>
       </c>
       <c r="L52">
-        <v>66.912939091318705</v>
+        <v>19.5092819249519</v>
       </c>
       <c r="M52" s="2">
-        <v>26.5</v>
+        <v>61.4</v>
       </c>
       <c r="N52">
-        <v>14.55</v>
+        <v>30.7</v>
       </c>
       <c r="O52">
-        <v>90.793813689999993</v>
+        <v>26.8387612</v>
       </c>
       <c r="P52">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q52" t="s">
         <v>92</v>
@@ -13240,53 +13240,53 @@
       <c r="AF52" s="4"/>
     </row>
     <row r="53" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>54</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="2">
-        <v>2011</v>
+      <c r="A53">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53">
+        <v>2006</v>
       </c>
       <c r="D53" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="2">
-        <v>-0.73484692283495345</v>
+      <c r="F53" s="5">
+        <v>0</v>
       </c>
       <c r="G53" s="2">
-        <v>-78.862897530357202</v>
+        <v>-81.711551456682102</v>
       </c>
       <c r="H53" s="2">
-        <v>35.916427727124997</v>
+        <v>30.2237018019703</v>
       </c>
       <c r="I53">
-        <v>15.022346226514999</v>
+        <v>20.2559421445117</v>
       </c>
       <c r="J53">
-        <v>1154.2654867256599</v>
+        <v>1309.0493827160501</v>
       </c>
       <c r="K53">
-        <v>788.25526036625399</v>
+        <v>565.87966956621301</v>
       </c>
       <c r="L53">
-        <v>13.827848704515301</v>
+        <v>39.0624172069408</v>
       </c>
       <c r="M53" s="2">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="N53">
-        <v>17.5</v>
+        <v>33</v>
       </c>
       <c r="O53">
-        <v>47.332587760000003</v>
+        <v>89.178738999999993</v>
       </c>
       <c r="P53">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="Q53" t="s">
         <v>92</v>
@@ -13309,55 +13309,55 @@
     </row>
     <row r="54" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>130</v>
+        <v>1622</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="D54" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F54" s="2">
-        <v>-0.69</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2">
-        <v>145.36591909379999</v>
+        <v>129.092336812658</v>
       </c>
       <c r="H54" s="2">
-        <v>-37.806686188268102</v>
+        <v>35.3417571425638</v>
       </c>
       <c r="I54">
-        <v>13.1781247714618</v>
+        <v>12.9117699759347</v>
       </c>
       <c r="J54">
-        <v>944.05405405405395</v>
+        <v>1324.3571428571399</v>
       </c>
       <c r="K54">
-        <v>403.10476986996798</v>
+        <v>867.33749999999998</v>
       </c>
       <c r="L54">
-        <v>22.2164987014221</v>
+        <v>73.457922690255302</v>
       </c>
       <c r="M54" s="2">
-        <v>50</v>
+        <v>66.3</v>
       </c>
       <c r="N54">
-        <v>25</v>
+        <v>33.15</v>
       </c>
       <c r="O54">
-        <v>101.4257988</v>
+        <v>159.38215460000001</v>
       </c>
       <c r="P54">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Q54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -13377,55 +13377,55 @@
     </row>
     <row r="55" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>286</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C55" s="2">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D55" s="2">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F55" s="2">
-        <v>-0.65</v>
+        <v>-0.26</v>
       </c>
       <c r="G55" s="2">
-        <v>-149.78569926630999</v>
+        <v>-123.547437536503</v>
       </c>
       <c r="H55" s="2">
-        <v>61.222831358093202</v>
+        <v>44.208949507071402</v>
       </c>
       <c r="I55">
-        <v>0.58786689919298096</v>
+        <v>10.579234178249701</v>
       </c>
       <c r="J55">
-        <v>744.695652173913</v>
+        <v>1765.9615384615399</v>
       </c>
       <c r="K55">
-        <v>820.95562147057603</v>
+        <v>474.74617004394503</v>
       </c>
       <c r="L55">
-        <v>41.753649359164001</v>
+        <v>67.6569442015428</v>
       </c>
       <c r="M55" s="2">
-        <v>39.9</v>
+        <v>71</v>
       </c>
       <c r="N55">
-        <v>19.95</v>
-      </c>
-      <c r="O55" t="s">
-        <v>75</v>
+        <v>35.5</v>
+      </c>
+      <c r="O55">
+        <v>103.32527469999999</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -13445,55 +13445,55 @@
     </row>
     <row r="56" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>29</v>
-      </c>
-      <c r="B56" t="s">
-        <v>35</v>
+        <v>359</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C56" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="D56" s="2">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F56" s="2">
-        <v>-0.6403124237432849</v>
+        <v>-0.03</v>
       </c>
       <c r="G56" s="2">
-        <v>-122.03070445939601</v>
+        <v>-123.547437536503</v>
       </c>
       <c r="H56" s="2">
-        <v>47.648270662186903</v>
+        <v>44.208949507071402</v>
       </c>
       <c r="I56">
-        <v>7.8388711113196203</v>
+        <v>10.579234178249701</v>
       </c>
       <c r="J56">
-        <v>1579.9615384615399</v>
+        <v>1765.9615384615399</v>
       </c>
       <c r="K56">
-        <v>547.01484703650794</v>
+        <v>474.74617004394503</v>
       </c>
       <c r="L56">
-        <v>56.808510002723096</v>
+        <v>67.6569442015428</v>
       </c>
       <c r="M56" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N56">
-        <v>52.5</v>
+        <v>35.5</v>
       </c>
       <c r="O56">
-        <v>100.6907119</v>
+        <v>103.32527469999999</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -13513,55 +13513,55 @@
     </row>
     <row r="57" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>507</v>
+        <v>1619</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="D57" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F57" s="2">
-        <v>-0.64</v>
+        <v>0</v>
       </c>
       <c r="G57" s="2">
-        <v>-84.845495468416104</v>
+        <v>-93.635011052551505</v>
       </c>
       <c r="H57" s="2">
-        <v>32.599862138791998</v>
+        <v>41.6285379244284</v>
       </c>
       <c r="I57">
-        <v>17.281123656146899</v>
+        <v>9.3537170867289401</v>
       </c>
       <c r="J57">
-        <v>1312.5</v>
+        <v>878.86776859504096</v>
       </c>
       <c r="K57">
-        <v>708.60098784824595</v>
+        <v>1109.5479574912799</v>
       </c>
       <c r="L57">
-        <v>21.6108913781508</v>
+        <v>46.002445930291799</v>
       </c>
       <c r="M57" s="2">
-        <v>39.199999999999996</v>
+        <v>71</v>
       </c>
       <c r="N57">
-        <v>20.8</v>
+        <v>35.5</v>
       </c>
       <c r="O57">
-        <v>34.569705229999997</v>
+        <v>14.03237841</v>
       </c>
       <c r="P57">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -13581,49 +13581,49 @@
     </row>
     <row r="58" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>847</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
       </c>
       <c r="C58" s="2">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="D58" s="2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F58" s="2">
-        <v>-0.63245553203367588</v>
+        <v>-0.6403124237432849</v>
       </c>
       <c r="G58" s="2">
-        <v>175.255210413573</v>
+        <v>-122.03070445939601</v>
       </c>
       <c r="H58" s="2">
-        <v>-37.777371813615403</v>
+        <v>47.648270662186903</v>
       </c>
       <c r="I58">
-        <v>13.297548045282801</v>
+        <v>7.8388711113196203</v>
       </c>
       <c r="J58">
-        <v>1564.3260869565199</v>
+        <v>1579.9615384615399</v>
       </c>
       <c r="K58">
-        <v>350.87715878694002</v>
+        <v>547.01484703650794</v>
       </c>
       <c r="L58">
-        <v>16.802117275155101</v>
+        <v>56.808510002723096</v>
       </c>
       <c r="M58" s="2">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N58">
-        <v>35</v>
+        <v>52.5</v>
       </c>
       <c r="O58">
-        <v>124.8882868</v>
+        <v>100.6907119</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -13649,49 +13649,49 @@
     </row>
     <row r="59" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C59" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D59" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F59" s="2">
-        <v>-0.61</v>
-      </c>
-      <c r="G59" s="2">
-        <v>145.36591909379999</v>
-      </c>
-      <c r="H59" s="2">
-        <v>-37.806686188268102</v>
+        <v>-0.82462112512353214</v>
+      </c>
+      <c r="G59" s="5">
+        <v>-76.923828116832297</v>
+      </c>
+      <c r="H59" s="5">
+        <v>38.731161289875402</v>
       </c>
       <c r="I59">
-        <v>13.1781247714618</v>
+        <v>13.0908403977104</v>
       </c>
       <c r="J59">
-        <v>944.05405405405395</v>
+        <v>1074.95652173913</v>
       </c>
       <c r="K59">
-        <v>403.10476986996798</v>
+        <v>862.54229205587603</v>
       </c>
       <c r="L59">
-        <v>22.2164987014221</v>
+        <v>11.331408251886799</v>
       </c>
       <c r="M59" s="2">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="N59">
-        <v>25</v>
+        <v>38.5</v>
       </c>
       <c r="O59">
-        <v>101.4257988</v>
+        <v>102.81242450000001</v>
       </c>
       <c r="P59">
         <v>51</v>
@@ -13717,52 +13717,52 @@
     </row>
     <row r="60" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>157</v>
+        <v>1622</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="D60" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F60" s="2">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="G60" s="5">
-        <v>-88.178159313511102</v>
-      </c>
-      <c r="H60" s="5">
-        <v>43.1527981750775</v>
+        <v>-0.42</v>
+      </c>
+      <c r="G60" s="2">
+        <v>129.092336812658</v>
+      </c>
+      <c r="H60" s="2">
+        <v>35.3417571425638</v>
       </c>
       <c r="I60">
-        <v>8.0403160654808907</v>
+        <v>12.9117699759347</v>
       </c>
       <c r="J60">
-        <v>838.93388429752099</v>
+        <v>1324.3571428571399</v>
       </c>
       <c r="K60">
-        <v>1009.46629497434</v>
+        <v>867.33749999999998</v>
       </c>
       <c r="L60">
-        <v>34.373382883623599</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N60" t="s">
-        <v>75</v>
+        <v>73.457922690255302</v>
+      </c>
+      <c r="M60" s="2">
+        <v>77</v>
+      </c>
+      <c r="N60">
+        <v>38.5</v>
       </c>
       <c r="O60">
-        <v>20.963304050000001</v>
+        <v>159.38215460000001</v>
       </c>
       <c r="P60">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="Q60" t="s">
         <v>92</v>
@@ -13784,56 +13784,56 @@
       <c r="AF60" s="4"/>
     </row>
     <row r="61" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>10</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>32</v>
+      <c r="A61">
+        <v>209</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
       </c>
       <c r="C61" s="2">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="D61" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F61" s="2">
-        <v>-0.55677643628300222</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="G61" s="2">
-        <v>-84.732938749394705</v>
+        <v>119.559050101439</v>
       </c>
       <c r="H61" s="2">
-        <v>34.480135097528397</v>
+        <v>28.521895862550402</v>
       </c>
       <c r="I61">
-        <v>14.8106122546726</v>
+        <v>15.808659581854799</v>
       </c>
       <c r="J61">
-        <v>1453.3611111111099</v>
+        <v>1642.91089108911</v>
       </c>
       <c r="K61">
-        <v>758.870165224429</v>
+        <v>778.69467858040696</v>
       </c>
       <c r="L61">
-        <v>16.042336402116</v>
+        <v>51.640638483632898</v>
       </c>
       <c r="M61" s="2">
-        <v>55.800000000000004</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="N61">
-        <v>32.800000000000004</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="O61">
-        <v>43.012631489999997</v>
+        <v>70.049675250000007</v>
       </c>
       <c r="P61">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Q61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="5"/>
@@ -13852,56 +13852,56 @@
       <c r="AF61" s="4"/>
     </row>
     <row r="62" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>10</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>32</v>
+      <c r="A62">
+        <v>209</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
       </c>
       <c r="C62" s="2">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="D62" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F62" s="2">
-        <v>-0.53851648071345037</v>
+        <v>-0.49</v>
       </c>
       <c r="G62" s="2">
-        <v>-84.732938749394705</v>
+        <v>119.559050101439</v>
       </c>
       <c r="H62" s="2">
-        <v>34.480135097528397</v>
+        <v>28.521895862550402</v>
       </c>
       <c r="I62">
-        <v>14.8106122546726</v>
+        <v>15.808659581854799</v>
       </c>
       <c r="J62">
-        <v>1453.3611111111099</v>
+        <v>1642.91089108911</v>
       </c>
       <c r="K62">
-        <v>758.870165224429</v>
+        <v>778.69467858040696</v>
       </c>
       <c r="L62">
-        <v>16.042336402116</v>
+        <v>51.640638483632898</v>
       </c>
       <c r="M62" s="2">
-        <v>55.800000000000004</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="N62">
-        <v>32.800000000000004</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="O62">
-        <v>43.012631489999997</v>
+        <v>70.049675250000007</v>
       </c>
       <c r="P62">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Q62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="5"/>
@@ -13921,55 +13921,55 @@
     </row>
     <row r="63" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>977</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
+        <v>2038</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C63" s="2">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="D63" s="2">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F63" s="2">
-        <v>-0.53851648071345037</v>
+        <v>-0.9</v>
       </c>
       <c r="G63" s="2">
-        <v>110.66023696990899</v>
+        <v>8.6950014868463192</v>
       </c>
       <c r="H63" s="2">
-        <v>33.7307320614158</v>
+        <v>50.8130352580283</v>
       </c>
       <c r="I63">
-        <v>12.7073659631941</v>
+        <v>8.3393827915191707</v>
       </c>
       <c r="J63">
-        <v>765.62037037036998</v>
+        <v>875.28571428571399</v>
       </c>
       <c r="K63">
-        <v>876.98536399558702</v>
+        <v>626.44085562569796</v>
       </c>
       <c r="L63">
-        <v>71.317376595956304</v>
+        <v>13.976843908854899</v>
       </c>
       <c r="M63" s="2">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N63">
-        <v>15.5</v>
+        <v>47</v>
       </c>
       <c r="O63">
-        <v>37.7948959</v>
+        <v>39.669576900000003</v>
       </c>
       <c r="P63">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="Q63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R63" s="2"/>
       <c r="S63" s="5"/>
@@ -13989,55 +13989,55 @@
     </row>
     <row r="64" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>977</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
+        <v>2038</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C64" s="2">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="D64" s="2">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F64" s="2">
-        <v>-0.4898979485566356</v>
+        <v>-0.82462112512353214</v>
       </c>
       <c r="G64" s="2">
-        <v>110.66023696990899</v>
+        <v>8.6950014868463192</v>
       </c>
       <c r="H64" s="2">
-        <v>33.7307320614158</v>
+        <v>50.8130352580283</v>
       </c>
       <c r="I64">
-        <v>12.7073659631941</v>
+        <v>8.3393827915191707</v>
       </c>
       <c r="J64">
-        <v>765.62037037036998</v>
+        <v>875.28571428571399</v>
       </c>
       <c r="K64">
-        <v>876.98536399558702</v>
+        <v>626.44085562569796</v>
       </c>
       <c r="L64">
-        <v>71.317376595956304</v>
+        <v>13.976843908854899</v>
       </c>
       <c r="M64" s="2">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="N64">
-        <v>15.5</v>
+        <v>47</v>
       </c>
       <c r="O64">
-        <v>37.7948959</v>
+        <v>39.669576900000003</v>
       </c>
       <c r="P64">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="Q64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R64" s="2"/>
       <c r="S64" s="5"/>
@@ -14057,55 +14057,55 @@
     </row>
     <row r="65" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>339</v>
+        <v>1621</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D65" s="2">
+        <v>98</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>-88.926043252578197</v>
+      </c>
+      <c r="H65" s="2">
+        <v>41.8597629640675</v>
+      </c>
+      <c r="I65">
+        <v>9.0990066606490299</v>
+      </c>
+      <c r="J65">
+        <v>918.08196721311504</v>
+      </c>
+      <c r="K65">
+        <v>1066.8512878418001</v>
+      </c>
+      <c r="L65">
+        <v>33.8313197151559</v>
+      </c>
+      <c r="M65" s="2">
+        <v>84</v>
+      </c>
+      <c r="N65">
         <v>47</v>
       </c>
-      <c r="C65" s="2">
-        <v>2012</v>
-      </c>
-      <c r="D65" s="2">
-        <v>685</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="2">
-        <v>-0.45825756949558399</v>
-      </c>
-      <c r="G65" s="2">
-        <v>128.29878955445099</v>
-      </c>
-      <c r="H65" s="2">
-        <v>36.622840663794101</v>
-      </c>
-      <c r="I65">
-        <v>10.720516547822101</v>
-      </c>
-      <c r="J65">
-        <v>1240.7368421052599</v>
-      </c>
-      <c r="K65">
-        <v>978.47471270644905</v>
-      </c>
-      <c r="L65">
-        <v>81.555939389948307</v>
-      </c>
-      <c r="M65" s="2">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="N65" t="s">
-        <v>75</v>
-      </c>
       <c r="O65">
-        <v>72.386481500000002</v>
+        <v>15.39221897</v>
       </c>
       <c r="P65">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="Q65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R65" s="2"/>
       <c r="S65" s="5"/>
@@ -14125,55 +14125,55 @@
     </row>
     <row r="66" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>138</v>
+        <v>1621</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C66" s="2">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="D66" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F66" s="2">
-        <v>-0.42</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2">
-        <v>-88.0558981249022</v>
+        <v>-88.926043252578197</v>
       </c>
       <c r="H66" s="2">
-        <v>43.7140892217665</v>
+        <v>41.8597629640675</v>
       </c>
       <c r="I66">
-        <v>7.69015644478986</v>
+        <v>9.0990066606490299</v>
       </c>
       <c r="J66">
-        <v>807.71653543307104</v>
+        <v>918.08196721311504</v>
       </c>
       <c r="K66">
-        <v>1007.24332265779</v>
+        <v>1066.8512878418001</v>
       </c>
       <c r="L66">
-        <v>34.577904678705202</v>
+        <v>33.8313197151559</v>
       </c>
       <c r="M66" s="2">
-        <v>14.770000000000001</v>
+        <v>84</v>
       </c>
       <c r="N66">
-        <v>7.415</v>
+        <v>47</v>
       </c>
       <c r="O66">
-        <v>20.760195960000001</v>
+        <v>15.39221897</v>
       </c>
       <c r="P66">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R66" s="2"/>
       <c r="S66" s="5"/>
@@ -14192,53 +14192,53 @@
       <c r="AF66" s="4"/>
     </row>
     <row r="67" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>1622</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>66</v>
+      <c r="A67">
+        <v>209</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
       </c>
       <c r="C67" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D67" s="2">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F67" s="2">
-        <v>-0.42</v>
+        <v>-0.87</v>
       </c>
       <c r="G67" s="2">
-        <v>129.092336812658</v>
+        <v>119.559050101439</v>
       </c>
       <c r="H67" s="2">
-        <v>35.3417571425638</v>
+        <v>28.521895862550402</v>
       </c>
       <c r="I67">
-        <v>12.9117699759347</v>
+        <v>15.808659581854799</v>
       </c>
       <c r="J67">
-        <v>1324.3571428571399</v>
+        <v>1642.91089108911</v>
       </c>
       <c r="K67">
-        <v>867.33749999999998</v>
+        <v>778.69467858040696</v>
       </c>
       <c r="L67">
-        <v>73.457922690255302</v>
+        <v>51.640638483632898</v>
       </c>
       <c r="M67" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="N67">
-        <v>38.5</v>
+        <v>43.5</v>
       </c>
       <c r="O67">
-        <v>159.38215460000001</v>
+        <v>70.049675250000007</v>
       </c>
       <c r="P67">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q67" t="s">
         <v>92</v>
@@ -14261,52 +14261,52 @@
     </row>
     <row r="68" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68">
-        <v>2007</v>
+        <v>44</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2012</v>
       </c>
       <c r="D68" s="2">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F68" s="2">
-        <v>-0.4</v>
+        <v>-0.82</v>
       </c>
       <c r="G68" s="2">
-        <v>-59.9815334232051</v>
+        <v>119.559050101439</v>
       </c>
       <c r="H68" s="2">
-        <v>-3.0749098969769202</v>
+        <v>28.521895862550402</v>
       </c>
       <c r="I68">
-        <v>26.7156036211097</v>
+        <v>15.808659581854799</v>
       </c>
       <c r="J68">
-        <v>2286.5760869565202</v>
+        <v>1642.91089108911</v>
       </c>
       <c r="K68">
-        <v>46.866109765094301</v>
+        <v>778.69467858040696</v>
       </c>
       <c r="L68">
-        <v>44.7092975118886</v>
+        <v>51.640638483632898</v>
       </c>
       <c r="M68" s="2">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N68">
-        <v>50</v>
+        <v>43.5</v>
       </c>
       <c r="O68">
-        <v>66.533992229999996</v>
+        <v>70.049675250000007</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q68" t="s">
         <v>92</v>
@@ -14329,55 +14329,55 @@
     </row>
     <row r="69" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>181</v>
+        <v>523</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C69" s="2">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="D69" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F69" s="2">
-        <v>-0.4</v>
+        <v>-0.54772255750516607</v>
       </c>
       <c r="G69" s="2">
-        <v>-84.471000856759503</v>
+        <v>-79.145331840485696</v>
       </c>
       <c r="H69" s="2">
-        <v>34.1342531931151</v>
+        <v>-4.1676366033547501</v>
       </c>
       <c r="I69">
-        <v>15.3285187537517</v>
+        <v>18.924195614728099</v>
       </c>
       <c r="J69">
-        <v>1406.4128440367001</v>
+        <v>1154.7386363636399</v>
       </c>
       <c r="K69">
-        <v>747.78308497437604</v>
+        <v>30.579259926622601</v>
       </c>
       <c r="L69">
-        <v>16.162106041514502</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N69" t="s">
-        <v>75</v>
+        <v>54.171485814181203</v>
+      </c>
+      <c r="M69" s="2">
+        <v>88.9</v>
+      </c>
+      <c r="N69">
+        <v>49.05</v>
       </c>
       <c r="O69">
-        <v>42.264608840000001</v>
+        <v>42.093724020000003</v>
       </c>
       <c r="P69">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R69" s="2"/>
       <c r="S69" s="5"/>
@@ -14396,56 +14396,56 @@
       <c r="AF69" s="4"/>
     </row>
     <row r="70" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>1493</v>
+      <c r="A70" s="2">
+        <v>459</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2">
         <v>2008</v>
       </c>
       <c r="D70" s="2">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F70" s="2">
-        <v>-0.39</v>
+        <v>-0.84261497731763579</v>
       </c>
       <c r="G70" s="2">
-        <v>-84.678111499384897</v>
+        <v>-84.832848281508703</v>
       </c>
       <c r="H70" s="2">
-        <v>33.200195604627197</v>
+        <v>32.388655699885803</v>
       </c>
       <c r="I70">
-        <v>16.5600778098418</v>
+        <v>17.545275292306599</v>
       </c>
       <c r="J70">
-        <v>1324.34579439252</v>
+        <v>1307.5660377358499</v>
       </c>
       <c r="K70">
-        <v>725.99157828928196</v>
+        <v>702.74318479142096</v>
       </c>
       <c r="L70">
-        <v>19.5092819249519</v>
+        <v>22.1234430097184</v>
       </c>
       <c r="M70" s="2">
-        <v>61.4</v>
+        <v>100</v>
       </c>
       <c r="N70">
-        <v>30.7</v>
+        <v>50</v>
       </c>
       <c r="O70">
-        <v>26.8387612</v>
+        <v>35.422285899999999</v>
       </c>
       <c r="P70">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R70" s="2"/>
       <c r="S70" s="5"/>
@@ -14465,55 +14465,55 @@
     </row>
     <row r="71" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>157</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>42</v>
+        <v>459</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
       </c>
       <c r="C71" s="2">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D71" s="2">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F71" s="2">
-        <v>-0.35</v>
-      </c>
-      <c r="G71" s="5">
-        <v>-88.178159313511102</v>
-      </c>
-      <c r="H71" s="5">
-        <v>43.1527981750775</v>
+        <v>-0.74833147735478833</v>
+      </c>
+      <c r="G71" s="2">
+        <v>-84.832848281508703</v>
+      </c>
+      <c r="H71" s="2">
+        <v>32.388655699885803</v>
       </c>
       <c r="I71">
-        <v>8.0403160654808907</v>
+        <v>17.545275292306599</v>
       </c>
       <c r="J71">
-        <v>838.93388429752099</v>
+        <v>1307.5660377358499</v>
       </c>
       <c r="K71">
-        <v>1009.46629497434</v>
+        <v>702.74318479142096</v>
       </c>
       <c r="L71">
-        <v>34.373382883623599</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N71" t="s">
-        <v>75</v>
+        <v>22.1234430097184</v>
+      </c>
+      <c r="M71" s="2">
+        <v>100</v>
+      </c>
+      <c r="N71">
+        <v>50</v>
       </c>
       <c r="O71">
-        <v>20.963304050000001</v>
+        <v>35.422285899999999</v>
       </c>
       <c r="P71">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
@@ -14533,55 +14533,55 @@
     </row>
     <row r="72" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D72" s="2">
+        <v>13</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="2">
+        <v>-0.49</v>
+      </c>
+      <c r="G72" s="2">
+        <v>21.733037245825798</v>
+      </c>
+      <c r="H72" s="2">
+        <v>38.446558873009501</v>
+      </c>
+      <c r="I72">
+        <v>13.9588510426608</v>
+      </c>
+      <c r="J72">
+        <v>788.09090909090901</v>
+      </c>
+      <c r="K72">
+        <v>646.80097489790501</v>
+      </c>
+      <c r="L72">
+        <v>59.932598530162501</v>
+      </c>
+      <c r="M72" s="2">
+        <v>100</v>
+      </c>
+      <c r="N72">
+        <v>50</v>
+      </c>
+      <c r="O72">
+        <v>106.219368</v>
+      </c>
+      <c r="P72">
         <v>59</v>
       </c>
-      <c r="C72" s="2">
-        <v>2011</v>
-      </c>
-      <c r="D72" s="2">
-        <v>25</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="2">
-        <v>-0.31622776601683794</v>
-      </c>
-      <c r="G72" s="2">
-        <v>175.255210413573</v>
-      </c>
-      <c r="H72" s="2">
-        <v>-37.777371813615403</v>
-      </c>
-      <c r="I72">
-        <v>13.297548045282801</v>
-      </c>
-      <c r="J72">
-        <v>1564.3260869565199</v>
-      </c>
-      <c r="K72">
-        <v>350.87715878694002</v>
-      </c>
-      <c r="L72">
-        <v>16.802117275155101</v>
-      </c>
-      <c r="M72" s="2">
-        <v>58</v>
-      </c>
-      <c r="N72">
-        <v>35</v>
-      </c>
-      <c r="O72">
-        <v>124.8882868</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
       <c r="Q72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R72" s="2"/>
       <c r="S72" s="5"/>
@@ -14601,55 +14601,55 @@
     </row>
     <row r="73" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>630</v>
+        <v>2522</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C73" s="2">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="D73" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F73" s="2">
-        <v>-0.25</v>
+        <v>-0.49</v>
       </c>
       <c r="G73" s="2">
-        <v>111.01176677880299</v>
+        <v>-42.820367399132898</v>
       </c>
       <c r="H73" s="2">
-        <v>31.869357893441698</v>
+        <v>-22.5522971109168</v>
       </c>
       <c r="I73">
-        <v>13.5155793091036</v>
+        <v>21.1700589157814</v>
       </c>
       <c r="J73">
-        <v>1076.0283018867899</v>
+        <v>1337.91860465116</v>
       </c>
       <c r="K73">
-        <v>835.64572028394002</v>
+        <v>225.09452819824199</v>
       </c>
       <c r="L73">
-        <v>64.455044332540297</v>
+        <v>61.598029336263998</v>
       </c>
       <c r="M73" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="N73" t="s">
-        <v>75</v>
+        <v>100</v>
+      </c>
+      <c r="N73">
+        <v>50</v>
       </c>
       <c r="O73">
-        <v>65.82608089</v>
-      </c>
-      <c r="P73">
-        <v>54</v>
+        <v>116.4454994</v>
+      </c>
+      <c r="P73" s="2">
+        <v>70</v>
       </c>
       <c r="Q73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
@@ -14668,53 +14668,53 @@
       <c r="AF73" s="4"/>
     </row>
     <row r="74" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>97</v>
-      </c>
-      <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74">
-        <v>2006</v>
+      <c r="A74" s="2">
+        <v>725</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2011</v>
       </c>
       <c r="D74" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="5">
-        <v>0</v>
+      <c r="F74" s="2">
+        <v>-0.81853527718724506</v>
       </c>
       <c r="G74" s="2">
-        <v>-81.711551456682102</v>
+        <v>174.93784492076</v>
       </c>
       <c r="H74" s="2">
-        <v>30.2237018019703</v>
+        <v>-36.978974591161197</v>
       </c>
       <c r="I74">
-        <v>20.2559421445117</v>
+        <v>14.3452296478804</v>
       </c>
       <c r="J74">
-        <v>1309.0493827160501</v>
+        <v>1500.36046511628</v>
       </c>
       <c r="K74">
-        <v>565.87966956621301</v>
+        <v>324.09162973803097</v>
       </c>
       <c r="L74">
-        <v>39.0624172069408</v>
+        <v>19.024206826853199</v>
       </c>
       <c r="M74" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="N74">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="O74">
-        <v>89.178738999999993</v>
+        <v>198.9998247</v>
       </c>
       <c r="P74">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q74" t="s">
         <v>92</v>
@@ -14736,50 +14736,50 @@
       <c r="AF74" s="4"/>
     </row>
     <row r="75" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>270</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1995</v>
+      <c r="A75">
+        <v>117</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75">
+        <v>2007</v>
       </c>
       <c r="D75" s="2">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F75" s="2">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="G75" s="2">
-        <v>173.80026069566901</v>
+        <v>-59.9815334232051</v>
       </c>
       <c r="H75" s="2">
-        <v>-35.504117654961</v>
+        <v>-3.0749098969769202</v>
       </c>
       <c r="I75">
-        <v>14.905010337260199</v>
+        <v>26.7156036211097</v>
       </c>
       <c r="J75">
-        <v>1494.14925373134</v>
+        <v>2286.5760869565202</v>
       </c>
       <c r="K75">
-        <v>288.10801970069099</v>
+        <v>46.866109765094301</v>
       </c>
       <c r="L75">
-        <v>22.4875832458041</v>
+        <v>44.7092975118886</v>
       </c>
       <c r="M75" s="2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N75">
-        <v>3.5</v>
+        <v>50</v>
       </c>
       <c r="O75">
-        <v>182.04042480000001</v>
+        <v>66.533992229999996</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -14805,55 +14805,55 @@
     </row>
     <row r="76" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>270</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>96</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
       </c>
       <c r="C76" s="2">
-        <v>1995</v>
+        <v>2007</v>
       </c>
       <c r="D76" s="2">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F76" s="2">
-        <v>0</v>
+        <v>-0.50990195135927852</v>
       </c>
       <c r="G76" s="2">
-        <v>173.80026069566901</v>
+        <v>169.75053955998999</v>
       </c>
       <c r="H76" s="2">
-        <v>-35.504117654961</v>
+        <v>-45.754609545703701</v>
       </c>
       <c r="I76">
-        <v>14.905010337260199</v>
+        <v>8.7954907749010207</v>
       </c>
       <c r="J76">
-        <v>1494.14925373134</v>
+        <v>1025.74782608696</v>
       </c>
       <c r="K76">
-        <v>288.10801970069099</v>
+        <v>396.88345230765998</v>
       </c>
       <c r="L76">
-        <v>22.4875832458041</v>
+        <v>18.199318355062701</v>
       </c>
       <c r="M76" s="2">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N76">
-        <v>3.5</v>
+        <v>50</v>
       </c>
       <c r="O76">
-        <v>182.04042480000001</v>
+        <v>98.695426490000003</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R76" s="2"/>
       <c r="S76" s="5"/>
@@ -14873,55 +14873,55 @@
     </row>
     <row r="77" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>1815</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C77" s="2">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="D77" s="2">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F77" s="2">
+        <v>-0.17320508075688773</v>
+      </c>
+      <c r="G77" s="2">
+        <v>169.75053955998999</v>
+      </c>
+      <c r="H77" s="2">
+        <v>-45.754609545703701</v>
+      </c>
+      <c r="I77">
+        <v>8.7954907749010207</v>
+      </c>
+      <c r="J77">
+        <v>1025.74782608696</v>
+      </c>
+      <c r="K77">
+        <v>396.88345230765998</v>
+      </c>
+      <c r="L77">
+        <v>18.199318355062701</v>
+      </c>
+      <c r="M77" s="2">
+        <v>100</v>
+      </c>
+      <c r="N77">
+        <v>50</v>
+      </c>
+      <c r="O77">
+        <v>98.695426490000003</v>
+      </c>
+      <c r="P77">
         <v>0</v>
       </c>
-      <c r="G77" s="2">
-        <v>108.935981718403</v>
-      </c>
-      <c r="H77" s="2">
-        <v>34.023800959842099</v>
-      </c>
-      <c r="I77" s="2">
-        <v>10.9998182720608</v>
-      </c>
-      <c r="J77" s="2">
-        <v>712.12962962963002</v>
-      </c>
-      <c r="K77" s="2">
-        <v>871.33503214518203</v>
-      </c>
-      <c r="L77" s="2">
-        <v>71.413292213722499</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O77" s="2">
-        <v>51.949224659999999</v>
-      </c>
-      <c r="P77">
-        <v>63</v>
-      </c>
       <c r="Q77" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R77" s="2"/>
       <c r="S77" s="5"/>
@@ -14941,55 +14941,55 @@
     </row>
     <row r="78" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>2070</v>
-      </c>
-      <c r="B78" t="s">
-        <v>70</v>
+        <v>1188</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C78" s="2">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="D78" s="2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F78" s="2">
-        <v>0.06</v>
+        <v>-0.52915026221291817</v>
       </c>
       <c r="G78" s="2">
-        <v>36.787484779217799</v>
+        <v>-121.86207827251999</v>
       </c>
       <c r="H78" s="2">
-        <v>-3.3319054680446398</v>
+        <v>37.208608937080498</v>
       </c>
       <c r="I78">
-        <v>20.548420678485499</v>
+        <v>14.832896232605</v>
       </c>
       <c r="J78">
-        <v>730.02272727272702</v>
+        <v>546.85227272727298</v>
       </c>
       <c r="K78">
-        <v>159.72996815768201</v>
+        <v>466.11517212607703</v>
       </c>
       <c r="L78">
-        <v>89.728237585587905</v>
+        <v>89.123885414817096</v>
       </c>
       <c r="M78" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="N78" t="s">
-        <v>75</v>
+        <v>100</v>
+      </c>
+      <c r="N78">
+        <v>50</v>
       </c>
       <c r="O78">
-        <v>38.605495779999998</v>
+        <v>145.94720040000001</v>
       </c>
       <c r="P78">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
@@ -15009,55 +15009,55 @@
     </row>
     <row r="79" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>806</v>
+        <v>148</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C79" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D79" s="2">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F79" s="2">
-        <v>0.27</v>
+        <v>-0.91104335791442992</v>
       </c>
       <c r="G79" s="2">
-        <v>8.1795455747425692</v>
+        <v>-2.61796595556652</v>
       </c>
       <c r="H79" s="2">
-        <v>47.012130573961699</v>
+        <v>38.006546626199302</v>
       </c>
       <c r="I79">
-        <v>6.0033337867847001</v>
+        <v>13.839531728199599</v>
       </c>
       <c r="J79">
-        <v>1268.07575757576</v>
+        <v>429.3125</v>
       </c>
       <c r="K79">
-        <v>616.00336525656996</v>
+        <v>714.86292430332696</v>
       </c>
       <c r="L79">
-        <v>16.7133198832021</v>
-      </c>
-      <c r="M79" s="2">
-        <v>40.400000000000006</v>
-      </c>
-      <c r="N79">
-        <v>62.5</v>
+        <v>44.545724494116698</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N79" t="s">
+        <v>75</v>
       </c>
       <c r="O79">
-        <v>64.46289634</v>
+        <v>37.650495640000003</v>
       </c>
       <c r="P79">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="Q79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R79" s="2"/>
       <c r="S79" s="5"/>
@@ -15077,55 +15077,55 @@
     </row>
     <row r="80" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>806</v>
+        <v>345</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="D80" s="2">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F80" s="2">
-        <v>0.33</v>
+        <v>-0.31622776601683794</v>
       </c>
       <c r="G80" s="2">
-        <v>8.1795455747425692</v>
+        <v>-118.503523868972</v>
       </c>
       <c r="H80" s="2">
-        <v>47.012130573961699</v>
+        <v>44.726643881350903</v>
       </c>
       <c r="I80">
-        <v>6.0033337867847001</v>
+        <v>6.2817281162927996</v>
       </c>
       <c r="J80">
-        <v>1268.07575757576</v>
+        <v>449.60317460317498</v>
       </c>
       <c r="K80">
-        <v>616.00336525656996</v>
+        <v>723.98910909985705</v>
       </c>
       <c r="L80">
-        <v>16.7133198832021</v>
-      </c>
-      <c r="M80" s="2">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="N80">
-        <v>9.4499999999999993</v>
+        <v>34.856877009073898</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N80" t="s">
+        <v>75</v>
       </c>
       <c r="O80">
-        <v>64.46289634</v>
+        <v>24.37867778</v>
       </c>
       <c r="P80">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R80" s="2"/>
       <c r="S80" s="5"/>
@@ -15145,40 +15145,40 @@
     </row>
     <row r="81" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>1138</v>
+        <v>1815</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2">
-        <v>2005</v>
+        <v>2018</v>
       </c>
       <c r="D81" s="2">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F81" s="2">
-        <v>0.35</v>
+        <v>-0.1414213562373095</v>
       </c>
       <c r="G81" s="2">
-        <v>-73.815635430313705</v>
+        <v>108.935981718403</v>
       </c>
       <c r="H81" s="2">
-        <v>41.543897058267198</v>
+        <v>34.023800959842099</v>
       </c>
       <c r="I81" s="2">
-        <v>9.1912837698439898</v>
+        <v>10.9998182720608</v>
       </c>
       <c r="J81" s="2">
-        <v>1184.9338842975201</v>
+        <v>712.12962962963002</v>
       </c>
       <c r="K81" s="2">
-        <v>929.77901641593496</v>
+        <v>871.33503214518203</v>
       </c>
       <c r="L81" s="2">
-        <v>10.2035719540494</v>
+        <v>71.413292213722499</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>75</v>
@@ -15187,13 +15187,13 @@
         <v>75</v>
       </c>
       <c r="O81" s="2">
-        <v>87.787766989999994</v>
+        <v>51.949224659999999</v>
       </c>
       <c r="P81">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R81" s="2"/>
       <c r="S81" s="5"/>
@@ -15212,56 +15212,56 @@
       <c r="AF81" s="4"/>
     </row>
     <row r="82" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>1934</v>
+      <c r="A82" s="2">
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82">
-        <v>2020</v>
+        <v>36</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2008</v>
       </c>
       <c r="D82" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F82" s="2">
-        <v>0.74939975980780782</v>
+        <v>0</v>
       </c>
       <c r="G82" s="2">
-        <v>121.018056</v>
+        <v>-60.149543343533402</v>
       </c>
       <c r="H82" s="2">
-        <v>14.228889000000001</v>
+        <v>-1.97433119130239</v>
       </c>
       <c r="I82">
-        <v>26.346534637083501</v>
+        <v>26.505502486496798</v>
       </c>
       <c r="J82">
-        <v>2308.4096385542198</v>
+        <v>2401.23595505618</v>
       </c>
       <c r="K82">
-        <v>105.345206478992</v>
+        <v>44.196177236149801</v>
       </c>
       <c r="L82">
-        <v>75.550407455628203</v>
-      </c>
-      <c r="M82" s="2">
-        <v>35.9</v>
+        <v>38.298077186841702</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="N82" t="s">
         <v>75</v>
       </c>
       <c r="O82">
-        <v>178.5973951</v>
+        <v>43.703481969999999</v>
       </c>
       <c r="P82">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R82" s="2"/>
       <c r="S82" s="5"/>
@@ -15281,55 +15281,55 @@
     </row>
     <row r="83" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C83" s="2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D83" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F83" s="2">
-        <v>-0.50990195135927852</v>
+        <v>0</v>
       </c>
       <c r="G83" s="2">
-        <v>169.75053955998999</v>
+        <v>-60.149543343533402</v>
       </c>
       <c r="H83" s="2">
-        <v>-45.754609545703701</v>
-      </c>
-      <c r="I83">
-        <v>8.7954907749010207</v>
-      </c>
-      <c r="J83">
-        <v>1025.74782608696</v>
-      </c>
-      <c r="K83">
-        <v>396.88345230765998</v>
-      </c>
-      <c r="L83">
-        <v>18.199318355062701</v>
-      </c>
-      <c r="M83" s="2">
-        <v>100</v>
-      </c>
-      <c r="N83">
-        <v>50</v>
-      </c>
-      <c r="O83">
-        <v>98.695426490000003</v>
+        <v>-1.97433119130239</v>
+      </c>
+      <c r="I83" s="2">
+        <v>26.505502486496798</v>
+      </c>
+      <c r="J83" s="2">
+        <v>2401.23595505618</v>
+      </c>
+      <c r="K83" s="2">
+        <v>44.196177236149801</v>
+      </c>
+      <c r="L83" s="2">
+        <v>38.298077186841702</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O83" s="2">
+        <v>43.703481969999999</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R83" s="2"/>
       <c r="S83" s="5"/>
@@ -15349,55 +15349,55 @@
     </row>
     <row r="84" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>96</v>
+        <v>1138</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C84" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D84" s="2">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F84" s="2">
-        <v>-0.17320508075688773</v>
+        <v>0.09</v>
       </c>
       <c r="G84" s="2">
-        <v>169.75053955998999</v>
+        <v>-73.815635430313705</v>
       </c>
       <c r="H84" s="2">
-        <v>-45.754609545703701</v>
-      </c>
-      <c r="I84">
-        <v>8.7954907749010207</v>
-      </c>
-      <c r="J84">
-        <v>1025.74782608696</v>
-      </c>
-      <c r="K84">
-        <v>396.88345230765998</v>
-      </c>
-      <c r="L84">
-        <v>18.199318355062701</v>
-      </c>
-      <c r="M84" s="2">
-        <v>100</v>
-      </c>
-      <c r="N84">
-        <v>50</v>
-      </c>
-      <c r="O84">
-        <v>98.695426490000003</v>
+        <v>41.543897058267198</v>
+      </c>
+      <c r="I84" s="2">
+        <v>9.1912837698439898</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1184.9338842975201</v>
+      </c>
+      <c r="K84" s="2">
+        <v>929.77901641593496</v>
+      </c>
+      <c r="L84" s="2">
+        <v>10.2035719540494</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O84" s="2">
+        <v>87.787766989999994</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Q84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
@@ -15417,55 +15417,55 @@
     </row>
     <row r="85" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>1619</v>
+        <v>2295</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" s="2">
-        <v>2016</v>
+        <v>71</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="D85" s="2">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F85" s="2">
-        <v>0</v>
+        <v>0.21447610589527216</v>
       </c>
       <c r="G85" s="2">
-        <v>-93.635011052551505</v>
+        <v>124.66807985024499</v>
       </c>
       <c r="H85" s="2">
-        <v>41.6285379244284</v>
-      </c>
-      <c r="I85">
-        <v>9.3537170867289401</v>
-      </c>
-      <c r="J85">
-        <v>878.86776859504096</v>
-      </c>
-      <c r="K85">
-        <v>1109.5479574912799</v>
-      </c>
-      <c r="L85">
-        <v>46.002445930291799</v>
-      </c>
-      <c r="M85" s="2">
-        <v>71</v>
-      </c>
-      <c r="N85">
-        <v>35.5</v>
-      </c>
-      <c r="O85">
-        <v>14.03237841</v>
-      </c>
-      <c r="P85">
-        <v>61</v>
+        <v>41.563813242725999</v>
+      </c>
+      <c r="I85" s="2">
+        <v>5.8894058446730302</v>
+      </c>
+      <c r="J85" s="2">
+        <v>853.80645161290295</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1290.3346547772801</v>
+      </c>
+      <c r="L85" s="2">
+        <v>101.92718856565401</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O85" s="2">
+        <v>47.284639409999997</v>
+      </c>
+      <c r="P85" s="2">
+        <v>62</v>
       </c>
       <c r="Q85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
@@ -15485,55 +15485,55 @@
     </row>
     <row r="86" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>676</v>
+        <v>157</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C86" s="2">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="D86" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F86" s="2">
-        <v>0.33166247903553997</v>
-      </c>
-      <c r="G86" s="2">
-        <v>-93.558973533021103</v>
-      </c>
-      <c r="H86" s="2">
-        <v>42.150110695346299</v>
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="G86" s="5">
+        <v>-88.178159313511102</v>
+      </c>
+      <c r="H86" s="5">
+        <v>43.1527981750775</v>
       </c>
       <c r="I86">
-        <v>8.7186081153302197</v>
+        <v>8.0403160654808907</v>
       </c>
       <c r="J86">
-        <v>852.86776859504096</v>
+        <v>838.93388429752099</v>
       </c>
       <c r="K86">
-        <v>1137.3452208968199</v>
+        <v>1009.46629497434</v>
       </c>
       <c r="L86">
-        <v>48.901012499470397</v>
-      </c>
-      <c r="M86" s="2">
-        <v>34</v>
-      </c>
-      <c r="N86">
-        <v>18</v>
+        <v>34.373382883623599</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N86" t="s">
+        <v>75</v>
       </c>
       <c r="O86">
-        <v>11.004437100000001</v>
+        <v>20.963304050000001</v>
       </c>
       <c r="P86">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="Q86" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
@@ -15553,55 +15553,55 @@
     </row>
     <row r="87" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>1188</v>
+        <v>181</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="D87" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F87" s="2">
-        <v>-0.52915026221291817</v>
+        <v>-0.4</v>
       </c>
       <c r="G87" s="2">
-        <v>-121.86207827251999</v>
+        <v>-84.471000856759503</v>
       </c>
       <c r="H87" s="2">
-        <v>37.208608937080498</v>
+        <v>34.1342531931151</v>
       </c>
       <c r="I87">
-        <v>14.832896232605</v>
+        <v>15.3285187537517</v>
       </c>
       <c r="J87">
-        <v>546.85227272727298</v>
+        <v>1406.4128440367001</v>
       </c>
       <c r="K87">
-        <v>466.11517212607703</v>
+        <v>747.78308497437604</v>
       </c>
       <c r="L87">
-        <v>89.123885414817096</v>
-      </c>
-      <c r="M87" s="2">
-        <v>100</v>
-      </c>
-      <c r="N87">
-        <v>50</v>
+        <v>16.162106041514502</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N87" t="s">
+        <v>75</v>
       </c>
       <c r="O87">
-        <v>145.94720040000001</v>
+        <v>42.264608840000001</v>
       </c>
       <c r="P87">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
@@ -15621,55 +15621,55 @@
     </row>
     <row r="88" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>676</v>
+        <v>157</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C88" s="2">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="D88" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F88" s="2">
-        <v>-0.31622776601683794</v>
-      </c>
-      <c r="G88" s="2">
-        <v>-93.558973533021103</v>
-      </c>
-      <c r="H88" s="2">
-        <v>42.150110695346299</v>
+        <v>-0.35</v>
+      </c>
+      <c r="G88" s="5">
+        <v>-88.178159313511102</v>
+      </c>
+      <c r="H88" s="5">
+        <v>43.1527981750775</v>
       </c>
       <c r="I88">
-        <v>8.7186081153302197</v>
+        <v>8.0403160654808907</v>
       </c>
       <c r="J88">
-        <v>852.86776859504096</v>
+        <v>838.93388429752099</v>
       </c>
       <c r="K88">
-        <v>1137.3452208968199</v>
+        <v>1009.46629497434</v>
       </c>
       <c r="L88">
-        <v>48.901012499470397</v>
-      </c>
-      <c r="M88" s="2">
-        <v>46</v>
-      </c>
-      <c r="N88">
-        <v>69</v>
+        <v>34.373382883623599</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N88" t="s">
+        <v>75</v>
       </c>
       <c r="O88">
-        <v>11.004437100000001</v>
+        <v>20.963304050000001</v>
       </c>
       <c r="P88">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="Q88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
@@ -15689,55 +15689,55 @@
     </row>
     <row r="89" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>781</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>56</v>
+        <v>1815</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
       </c>
       <c r="C89" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D89" s="2">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F89" s="2">
-        <v>-0.1414213562373095</v>
+        <v>0</v>
       </c>
       <c r="G89" s="2">
-        <v>-97.6486057905867</v>
+        <v>108.935981718403</v>
       </c>
       <c r="H89" s="2">
-        <v>30.2350475589949</v>
-      </c>
-      <c r="I89">
-        <v>19.4802855173747</v>
-      </c>
-      <c r="J89">
-        <v>869.09523809523796</v>
-      </c>
-      <c r="K89">
-        <v>710.55064348493295</v>
-      </c>
-      <c r="L89">
-        <v>32.762220873151499</v>
-      </c>
-      <c r="M89" s="2">
-        <v>60.6</v>
-      </c>
-      <c r="N89">
-        <v>30.3</v>
-      </c>
-      <c r="O89">
-        <v>49.070831239999997</v>
+        <v>34.023800959842099</v>
+      </c>
+      <c r="I89" s="2">
+        <v>10.9998182720608</v>
+      </c>
+      <c r="J89" s="2">
+        <v>712.12962962963002</v>
+      </c>
+      <c r="K89" s="2">
+        <v>871.33503214518203</v>
+      </c>
+      <c r="L89" s="2">
+        <v>71.413292213722499</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O89" s="2">
+        <v>51.949224659999999</v>
       </c>
       <c r="P89">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
@@ -15757,55 +15757,55 @@
     </row>
     <row r="90" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>781</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>56</v>
+        <v>1138</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
       </c>
       <c r="C90" s="2">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="D90" s="2">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F90" s="2">
-        <v>-0.1</v>
+        <v>0.35</v>
       </c>
       <c r="G90" s="2">
-        <v>-97.6486057905867</v>
+        <v>-73.815635430313705</v>
       </c>
       <c r="H90" s="2">
-        <v>30.2350475589949</v>
-      </c>
-      <c r="I90">
-        <v>19.4802855173747</v>
-      </c>
-      <c r="J90">
-        <v>869.09523809523796</v>
-      </c>
-      <c r="K90">
-        <v>710.55064348493295</v>
-      </c>
-      <c r="L90">
-        <v>32.762220873151499</v>
-      </c>
-      <c r="M90" s="2">
-        <v>60.6</v>
-      </c>
-      <c r="N90">
-        <v>30.3</v>
-      </c>
-      <c r="O90">
-        <v>49.070831239999997</v>
+        <v>41.543897058267198</v>
+      </c>
+      <c r="I90" s="2">
+        <v>9.1912837698439898</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1184.9338842975201</v>
+      </c>
+      <c r="K90" s="2">
+        <v>929.77901641593496</v>
+      </c>
+      <c r="L90" s="2">
+        <v>10.2035719540494</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O90" s="2">
+        <v>87.787766989999994</v>
       </c>
       <c r="P90">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="Q90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R90" s="2"/>
       <c r="S90" s="5"/>
@@ -15836,7 +15836,7 @@
   </sheetData>
   <autoFilter ref="A1:Q90" xr:uid="{0EE2B149-B2A1-4AB3-A806-825BF9D726CF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q90">
-      <sortCondition ref="Q1:Q90"/>
+      <sortCondition ref="M1:M90"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -15847,7 +15847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB89D24-12F2-4895-BFBB-E513F5CF3A80}">
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q1" sqref="A1:Q41"/>
     </sheetView>
   </sheetViews>
